--- a/reports/hls/report-hls-solutions.xlsx
+++ b/reports/hls/report-hls-solutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco D\universita\magistrale\sintesi-ad-alto-livello-di-sistemi-digitali\progetti\progetto1\reports\hls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2171D712-A15F-4E4D-9FF8-70A9568D66F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3F95B8-7BCB-458A-8041-6FA26E65A96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{478786F9-0C08-4B95-A9F2-D12EA5517A72}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="66">
   <si>
     <t>Unoptimized</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>3~12</t>
+  </si>
+  <si>
+    <t>Bitwidth Optimization</t>
   </si>
 </sst>
 </file>
@@ -467,22 +470,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -494,16 +527,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -515,37 +548,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -689,13 +692,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$28</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$29</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$28)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$29)</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -748,6 +751,9 @@
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>Bitwidth Optimization</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -758,14 +764,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$D$8:$D$28</c15:sqref>
+                    <c15:sqref>Data!$D$8:$D$29</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$D$8:$D$10,Data!$D$12,Data!$D$14:$D$16,Data!$D$18:$D$28)</c:f>
+              <c:f>(Data!$D$8:$D$10,Data!$D$12,Data!$D$14:$D$16,Data!$D$18:$D$29)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -818,6 +824,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -874,13 +883,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$28</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$29</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$28)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$29)</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -933,6 +942,9 @@
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>Bitwidth Optimization</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -943,14 +955,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$E$8:$E$28</c15:sqref>
+                    <c15:sqref>Data!$E$8:$E$29</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$E$8:$E$10,Data!$E$12,Data!$E$14:$E$16,Data!$E$18:$E$28)</c:f>
+              <c:f>(Data!$E$8:$E$10,Data!$E$12,Data!$E$14:$E$16,Data!$E$18:$E$29)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -1003,6 +1015,9 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
@@ -1059,13 +1074,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$28</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$29</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$28)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$29)</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -1118,6 +1133,9 @@
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>Bitwidth Optimization</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -1128,14 +1146,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$F$8:$F$28</c15:sqref>
+                    <c15:sqref>Data!$F$8:$F$29</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$F$8:$F$10,Data!$F$12,Data!$F$14:$F$16,Data!$F$18:$F$28)</c:f>
+              <c:f>(Data!$F$8:$F$10,Data!$F$12,Data!$F$14:$F$16,Data!$F$18:$F$29)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>287</c:v>
                 </c:pt>
@@ -1188,6 +1206,9 @@
                   <c:v>710</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>767</c:v>
                 </c:pt>
               </c:numCache>
@@ -1242,13 +1263,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$28</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$29</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$28)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$29)</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -1301,6 +1322,9 @@
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>Bitwidth Optimization</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -1311,14 +1335,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$G$8:$G$28</c15:sqref>
+                    <c15:sqref>Data!$G$8:$G$29</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$G$8:$G$10,Data!$G$12,Data!$G$14:$G$16,Data!$G$18:$G$28)</c:f>
+              <c:f>(Data!$G$8:$G$10,Data!$G$12,Data!$G$14:$G$16,Data!$G$18:$G$29)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>233</c:v>
                 </c:pt>
@@ -1371,6 +1395,9 @@
                   <c:v>621</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>583</c:v>
                 </c:pt>
               </c:numCache>
@@ -1435,7 +1462,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1773,13 +1800,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$27</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$28</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$27)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$28)</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -1830,6 +1857,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Loop Pipelining</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Bitwidth Optimization</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1839,14 +1869,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$K$8:$K$27</c15:sqref>
+                    <c15:sqref>Data!$K$8:$K$28</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$K$8:$K$10,Data!$K$12,Data!$K$14:$K$16,Data!$K$18:$K$27)</c:f>
+              <c:f>(Data!$K$8:$K$10,Data!$K$12,Data!$K$14:$K$16,Data!$K$18:$K$28)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>23</c:v>
                 </c:pt>
@@ -1897,6 +1927,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1952,13 +1985,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$27</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$28</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$27)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$28)</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -2009,6 +2042,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Loop Pipelining</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Bitwidth Optimization</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2018,14 +2054,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$L$8:$L$27</c15:sqref>
+                    <c15:sqref>Data!$L$8:$L$28</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$L$8:$L$10,Data!$L$12,Data!$L$14:$L$16,Data!$L$18:$L$27)</c:f>
+              <c:f>(Data!$L$8:$L$10,Data!$L$12,Data!$L$14:$L$16,Data!$L$18:$L$28)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>45</c:v>
                 </c:pt>
@@ -2076,6 +2112,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2139,7 +2178,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2470,13 +2509,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$27</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$28</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$27)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$28)</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -2527,6 +2566,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Loop Pipelining</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Bitwidth Optimization</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2536,14 +2578,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$M$8:$M$27</c15:sqref>
+                    <c15:sqref>Data!$M$8:$M$28</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$M$8:$M$10,Data!$M$12,Data!$M$14:$M$16,Data!$M$18:$M$27)</c:f>
+              <c:f>(Data!$M$8:$M$10,Data!$M$12,Data!$M$14:$M$16,Data!$M$18:$M$28)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>23</c:v>
                 </c:pt>
@@ -2594,6 +2636,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2649,13 +2694,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$27</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$28</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$27)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$28)</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -2706,6 +2751,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Loop Pipelining</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Bitwidth Optimization</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2715,14 +2763,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$N$8:$N$27</c15:sqref>
+                    <c15:sqref>Data!$N$8:$N$28</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$N$8:$N$10,Data!$N$12,Data!$N$14:$N$16,Data!$N$18:$N$27)</c:f>
+              <c:f>(Data!$N$8:$N$10,Data!$N$12,Data!$N$14:$N$16,Data!$N$18:$N$28)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>45</c:v>
                 </c:pt>
@@ -2773,6 +2821,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2836,7 +2887,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3142,13 +3193,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$27</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$28</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$27)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$28)</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -3199,6 +3250,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Loop Pipelining</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Bitwidth Optimization</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3208,14 +3262,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$U$8:$U$27</c15:sqref>
+                    <c15:sqref>Data!$U$8:$U$28</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$U$8:$U$10,Data!$U$12,Data!$U$14:$U$16,Data!$U$18:$U$27)</c:f>
+              <c:f>(Data!$U$8:$U$10,Data!$U$12,Data!$U$14:$U$16,Data!$U$18:$U$28)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>11</c:v>
                 </c:pt>
@@ -3266,6 +3320,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3329,7 +3386,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3660,13 +3717,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$27</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$28</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$27)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$28)</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -3717,6 +3774,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Loop Pipelining</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Bitwidth Optimization</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3726,14 +3786,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$X$8:$X$27</c15:sqref>
+                    <c15:sqref>Data!$X$8:$X$28</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$X$8:$X$10,Data!$X$12,Data!$X$14:$X$16,Data!$X$18:$X$27)</c:f>
+              <c:f>(Data!$X$8:$X$10,Data!$X$12,Data!$X$14:$X$16,Data!$X$18:$X$28)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>43</c:v>
                 </c:pt>
@@ -3784,6 +3844,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3839,13 +3902,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$27</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$28</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$27)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$28)</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -3896,6 +3959,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Loop Pipelining</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Bitwidth Optimization</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3905,14 +3971,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$Y$8:$Y$27</c15:sqref>
+                    <c15:sqref>Data!$Y$8:$Y$28</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$Y$8:$Y$10,Data!$Y$12,Data!$Y$14:$Y$16,Data!$Y$18:$Y$27)</c:f>
+              <c:f>(Data!$Y$8:$Y$10,Data!$Y$12,Data!$Y$14:$Y$16,Data!$Y$18:$Y$28)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>43</c:v>
                 </c:pt>
@@ -3963,6 +4029,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4018,13 +4087,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$27</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$28</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$27)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$28)</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -4075,6 +4144,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Loop Pipelining</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Bitwidth Optimization</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4084,14 +4156,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$Z$8:$Z$27</c15:sqref>
+                    <c15:sqref>Data!$Z$8:$Z$28</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$Z$8:$Z$10,Data!$Z$12,Data!$Z$14:$Z$16,Data!$Z$18:$Z$27)</c:f>
+              <c:f>(Data!$Z$8:$Z$10,Data!$Z$12,Data!$Z$14:$Z$16,Data!$Z$18:$Z$28)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44</c:v>
                 </c:pt>
@@ -4142,6 +4214,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4205,7 +4280,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -4536,13 +4611,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$27</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$28</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$27)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$28)</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -4593,6 +4668,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Loop Pipelining</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Bitwidth Optimization</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4602,14 +4680,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$AA$8:$AA$27</c15:sqref>
+                    <c15:sqref>Data!$AA$8:$AA$28</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$AA$8:$AA$10,Data!$AA$12,Data!$AA$14:$AA$16,Data!$AA$18:$AA$27)</c:f>
+              <c:f>(Data!$AA$8:$AA$10,Data!$AA$12,Data!$AA$14:$AA$16,Data!$AA$18:$AA$28)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>43</c:v>
                 </c:pt>
@@ -4660,6 +4738,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4715,13 +4796,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$27</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$28</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$27)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$28)</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -4772,6 +4853,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Loop Pipelining</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Bitwidth Optimization</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4781,14 +4865,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$AB$8:$AB$27</c15:sqref>
+                    <c15:sqref>Data!$AB$8:$AB$28</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$AB$8:$AB$10,Data!$AB$12,Data!$AB$14:$AB$16,Data!$AB$18:$AB$27)</c:f>
+              <c:f>(Data!$AB$8:$AB$10,Data!$AB$12,Data!$AB$14:$AB$16,Data!$AB$18:$AB$28)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>43</c:v>
                 </c:pt>
@@ -4839,6 +4923,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4894,13 +4981,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$27</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$28</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$27)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$28)</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -4951,6 +5038,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Loop Pipelining</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Bitwidth Optimization</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4960,14 +5050,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$AC$8:$AC$27</c15:sqref>
+                    <c15:sqref>Data!$AC$8:$AC$28</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$AC$8:$AC$10,Data!$AC$12,Data!$AC$14:$AC$16,Data!$AC$18:$AC$27)</c:f>
+              <c:f>(Data!$AC$8:$AC$10,Data!$AC$12,Data!$AC$14:$AC$16,Data!$AC$18:$AC$28)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44</c:v>
                 </c:pt>
@@ -5018,6 +5108,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5412,13 +5505,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$28</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$29</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$28)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$29)</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -5471,6 +5564,9 @@
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>Bitwidth Optimization</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -5481,14 +5577,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$AF$8:$AF$28</c15:sqref>
+                    <c15:sqref>Data!$AF$8:$AF$29</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$AF$8:$AF$10,Data!$AF$12,Data!$AF$14:$AF$16,Data!$AF$18:$AF$28)</c:f>
+              <c:f>(Data!$AF$8:$AF$10,Data!$AF$12,Data!$AF$14:$AF$16,Data!$AF$18:$AF$29)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>81</c:v>
                 </c:pt>
@@ -5541,6 +5637,9 @@
                   <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>231</c:v>
                 </c:pt>
               </c:numCache>
@@ -5597,13 +5696,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$28</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$29</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$28)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$29)</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -5656,6 +5755,9 @@
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>Bitwidth Optimization</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -5666,14 +5768,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$AG$8:$AG$28</c15:sqref>
+                    <c15:sqref>Data!$AG$8:$AG$29</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$AG$8:$AG$10,Data!$AG$12,Data!$AG$14:$AG$16,Data!$AG$18:$AG$28)</c:f>
+              <c:f>(Data!$AG$8:$AG$10,Data!$AG$12,Data!$AG$14:$AG$16,Data!$AG$18:$AG$29)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>275</c:v>
                 </c:pt>
@@ -5726,6 +5828,9 @@
                   <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>739</c:v>
                 </c:pt>
               </c:numCache>
@@ -5782,13 +5887,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$28</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$29</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$28)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$29)</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -5841,6 +5946,9 @@
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>Bitwidth Optimization</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -5851,14 +5959,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$AH$8:$AH$28</c15:sqref>
+                    <c15:sqref>Data!$AH$8:$AH$29</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$AH$8:$AH$10,Data!$AH$12,Data!$AH$14:$AH$16,Data!$AH$18:$AH$28)</c:f>
+              <c:f>(Data!$AH$8:$AH$10,Data!$AH$12,Data!$AH$14:$AH$16,Data!$AH$18:$AH$29)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>160</c:v>
                 </c:pt>
@@ -5911,6 +6019,9 @@
                   <c:v>455</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>699</c:v>
                 </c:pt>
               </c:numCache>
@@ -5965,13 +6076,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$28</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$29</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$28)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$29)</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -6024,6 +6135,9 @@
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>Bitwidth Optimization</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -6034,14 +6148,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$AI$8:$AI$28</c15:sqref>
+                    <c15:sqref>Data!$AI$8:$AI$29</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$AI$8:$AI$10,Data!$AI$12,Data!$AI$14:$AI$16,Data!$AI$18:$AI$28)</c:f>
+              <c:f>(Data!$AI$8:$AI$10,Data!$AI$12,Data!$AI$14:$AI$16,Data!$AI$18:$AI$29)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -6094,6 +6208,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6148,13 +6265,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$28</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$29</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$28)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$29)</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -6207,6 +6324,9 @@
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>Bitwidth Optimization</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -6217,14 +6337,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$AJ$8:$AJ$28</c15:sqref>
+                    <c15:sqref>Data!$AJ$8:$AJ$29</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$AJ$8:$AJ$10,Data!$AJ$12,Data!$AJ$14:$AJ$16,Data!$AJ$18:$AJ$28)</c:f>
+              <c:f>(Data!$AJ$8:$AJ$10,Data!$AJ$12,Data!$AJ$14:$AJ$16,Data!$AJ$18:$AJ$29)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6277,6 +6397,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6341,7 +6464,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -10497,8 +10620,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -10533,8 +10656,8 @@
       <xdr:rowOff>168088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>11205</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>188962</xdr:rowOff>
     </xdr:to>
@@ -10563,16 +10686,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>179295</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>336177</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10599,14 +10722,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>369794</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>13446</xdr:rowOff>
     </xdr:to>
@@ -10646,8 +10769,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>17144</xdr:rowOff>
     </xdr:to>
@@ -10676,16 +10799,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>612775</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>10584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>603249</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>17144</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>607218</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>27728</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10725,8 +10848,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>17144</xdr:rowOff>
     </xdr:to>
@@ -11073,10 +11196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32F8C0C-32ED-409A-A129-79038668F278}">
-  <dimension ref="B2:AP28"/>
+  <dimension ref="B2:AP29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AG35" sqref="AG35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11104,242 +11227,242 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:42" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
       <c r="V2" s="7"/>
-      <c r="X2" s="18" t="s">
+      <c r="X2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
       <c r="AD2" s="7"/>
-      <c r="AF2" s="18" t="s">
+      <c r="AF2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="35"/>
     </row>
     <row r="3" spans="2:42" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="24" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="24" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="38"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="28"/>
       <c r="V3" s="7"/>
-      <c r="X3" s="24" t="s">
+      <c r="X3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="24" t="s">
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="33"/>
-      <c r="AF3" s="24" t="s">
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="22"/>
+      <c r="AF3" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="25"/>
-      <c r="AJ3" s="25"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="24" t="s">
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="AM3" s="25"/>
-      <c r="AN3" s="25"/>
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="21"/>
       <c r="AO3" s="4"/>
     </row>
     <row r="4" spans="2:42" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="39"/>
-      <c r="M4" s="29" t="s">
+      <c r="L4" s="16"/>
+      <c r="M4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="30"/>
-      <c r="O4" s="19" t="s">
+      <c r="N4" s="32"/>
+      <c r="O4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="21"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="31"/>
       <c r="V4" s="7"/>
-      <c r="X4" s="22" t="s">
+      <c r="X4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="Y4" s="22" t="s">
+      <c r="Y4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="Z4" s="22" t="s">
+      <c r="Z4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AA4" s="22" t="s">
+      <c r="AA4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AB4" s="22" t="s">
+      <c r="AB4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AC4" s="22" t="s">
+      <c r="AC4" s="13" t="s">
         <v>30</v>
       </c>
       <c r="AD4" s="7"/>
-      <c r="AF4" s="22" t="s">
+      <c r="AF4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AG4" s="22" t="s">
+      <c r="AG4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AH4" s="22" t="s">
+      <c r="AH4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AI4" s="22" t="s">
+      <c r="AI4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="AJ4" s="22" t="s">
+      <c r="AJ4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AK4" s="22" t="s">
+      <c r="AK4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AL4" s="22" t="s">
+      <c r="AL4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="AM4" s="26" t="s">
+      <c r="AM4" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="AN4" s="26" t="s">
+      <c r="AN4" s="36" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="22" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P5" s="34" t="s">
+      <c r="P5" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="13" t="s">
+      <c r="Q5" s="24"/>
+      <c r="R5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="34" t="s">
+      <c r="S5" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="T5" s="35"/>
-      <c r="U5" s="13" t="s">
+      <c r="T5" s="24"/>
+      <c r="U5" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="16"/>
-      <c r="AI5" s="16"/>
-      <c r="AJ5" s="16"/>
-      <c r="AK5" s="16"/>
-      <c r="AL5" s="16"/>
-      <c r="AM5" s="27"/>
-      <c r="AN5" s="27"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="14"/>
+      <c r="AM5" s="37"/>
+      <c r="AN5" s="37"/>
     </row>
     <row r="6" spans="2:42" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="32"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="17"/>
       <c r="K6" s="10" t="s">
         <v>29</v>
       </c>
@@ -11352,38 +11475,38 @@
       <c r="N6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="23"/>
+      <c r="O6" s="15"/>
       <c r="P6" s="12" t="s">
         <v>29</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="36"/>
+      <c r="R6" s="26"/>
       <c r="S6" s="9" t="s">
         <v>35</v>
       </c>
       <c r="T6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="U6" s="36"/>
+      <c r="U6" s="26"/>
       <c r="V6" s="8"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="23"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
       <c r="AD6" s="8"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="23"/>
-      <c r="AH6" s="23"/>
-      <c r="AI6" s="23"/>
-      <c r="AJ6" s="23"/>
-      <c r="AK6" s="23"/>
-      <c r="AL6" s="23"/>
-      <c r="AM6" s="28"/>
-      <c r="AN6" s="28"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="38"/>
+      <c r="AN6" s="38"/>
     </row>
     <row r="8" spans="2:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -11596,41 +11719,41 @@
       <c r="AO9" s="4"/>
     </row>
     <row r="10" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13">
+      <c r="C10" s="25"/>
+      <c r="D10" s="25">
         <v>0</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="25">
         <v>2</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="25">
         <v>205</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="25">
         <v>214</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="25">
         <v>10</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="25">
         <v>8.51</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="25">
         <v>1.25</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="25">
         <v>66</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="25">
         <v>66</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="25">
         <v>66</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="25">
         <v>66</v>
       </c>
       <c r="O10" s="5" t="s">
@@ -11654,72 +11777,72 @@
       <c r="U10" s="2">
         <v>10</v>
       </c>
-      <c r="V10" s="15"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="13">
+      <c r="V10" s="33"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="25">
         <v>66</v>
       </c>
-      <c r="Y10" s="13">
+      <c r="Y10" s="25">
         <v>66</v>
       </c>
-      <c r="Z10" s="13">
+      <c r="Z10" s="25">
         <v>67</v>
       </c>
-      <c r="AA10" s="13">
+      <c r="AA10" s="25">
         <v>66</v>
       </c>
-      <c r="AB10" s="13">
+      <c r="AB10" s="25">
         <v>66</v>
       </c>
-      <c r="AC10" s="13">
+      <c r="AC10" s="25">
         <v>67</v>
       </c>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="13">
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="25">
         <v>44</v>
       </c>
-      <c r="AG10" s="13">
+      <c r="AG10" s="25">
         <v>157</v>
       </c>
-      <c r="AH10" s="13">
+      <c r="AH10" s="25">
         <v>106</v>
       </c>
-      <c r="AI10" s="13">
+      <c r="AI10" s="25">
         <v>2</v>
       </c>
-      <c r="AJ10" s="13">
+      <c r="AJ10" s="25">
         <v>0</v>
       </c>
-      <c r="AK10" s="13">
+      <c r="AK10" s="25">
         <v>0</v>
       </c>
-      <c r="AL10" s="13">
+      <c r="AL10" s="25">
         <v>10</v>
       </c>
-      <c r="AM10" s="13">
+      <c r="AM10" s="25">
         <v>5.7450000000000001</v>
       </c>
-      <c r="AN10" s="13">
+      <c r="AN10" s="25">
         <v>6.3630000000000004</v>
       </c>
-      <c r="AO10" s="15"/>
-      <c r="AP10" s="17"/>
+      <c r="AO10" s="33"/>
+      <c r="AP10" s="39"/>
     </row>
     <row r="11" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
       <c r="O11" s="5" t="s">
         <v>56</v>
       </c>
@@ -11741,64 +11864,64 @@
       <c r="U11" s="2">
         <v>11</v>
       </c>
-      <c r="V11" s="15"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="13"/>
-      <c r="AJ11" s="13"/>
-      <c r="AK11" s="13"/>
-      <c r="AL11" s="13"/>
-      <c r="AM11" s="13"/>
-      <c r="AN11" s="13"/>
-      <c r="AO11" s="15"/>
-      <c r="AP11" s="17"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="33"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="25"/>
+      <c r="AH11" s="25"/>
+      <c r="AI11" s="25"/>
+      <c r="AJ11" s="25"/>
+      <c r="AK11" s="25"/>
+      <c r="AL11" s="25"/>
+      <c r="AM11" s="25"/>
+      <c r="AN11" s="25"/>
+      <c r="AO11" s="33"/>
+      <c r="AP11" s="39"/>
     </row>
     <row r="12" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13">
+      <c r="C12" s="25"/>
+      <c r="D12" s="25">
         <v>2</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="25">
         <v>2</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="25">
         <v>145</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="25">
         <v>236</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="25">
         <v>10</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="25">
         <v>8.51</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="25">
         <v>1.25</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="25">
         <v>56</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="25">
         <v>56</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="25">
         <v>56</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="25">
         <v>56</v>
       </c>
       <c r="O12" s="5" t="s">
@@ -11822,72 +11945,72 @@
       <c r="U12" s="2">
         <v>5</v>
       </c>
-      <c r="V12" s="15"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="13">
+      <c r="V12" s="33"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="25">
         <v>56</v>
       </c>
-      <c r="Y12" s="13">
+      <c r="Y12" s="25">
         <v>56</v>
       </c>
-      <c r="Z12" s="13">
+      <c r="Z12" s="25">
         <v>57</v>
       </c>
-      <c r="AA12" s="13">
+      <c r="AA12" s="25">
         <v>56</v>
       </c>
-      <c r="AB12" s="13">
+      <c r="AB12" s="25">
         <v>56</v>
       </c>
-      <c r="AC12" s="13">
+      <c r="AC12" s="25">
         <v>57</v>
       </c>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="13">
+      <c r="AD12" s="33"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="25">
         <v>31</v>
       </c>
-      <c r="AG12" s="13">
+      <c r="AG12" s="25">
         <v>97</v>
       </c>
-      <c r="AH12" s="13">
+      <c r="AH12" s="25">
         <v>72</v>
       </c>
-      <c r="AI12" s="13">
+      <c r="AI12" s="25">
         <v>2</v>
       </c>
-      <c r="AJ12" s="13">
+      <c r="AJ12" s="25">
         <v>2</v>
       </c>
-      <c r="AK12" s="13">
+      <c r="AK12" s="25">
         <v>0</v>
       </c>
-      <c r="AL12" s="13">
+      <c r="AL12" s="25">
         <v>10</v>
       </c>
-      <c r="AM12" s="13">
+      <c r="AM12" s="25">
         <v>5.7450000000000001</v>
       </c>
-      <c r="AN12" s="13">
+      <c r="AN12" s="25">
         <v>5.6920000000000002</v>
       </c>
-      <c r="AO12" s="15"/>
-      <c r="AP12" s="17"/>
+      <c r="AO12" s="33"/>
+      <c r="AP12" s="39"/>
     </row>
     <row r="13" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
       <c r="O13" s="5" t="s">
         <v>56</v>
       </c>
@@ -11909,27 +12032,27 @@
       <c r="U13" s="2">
         <v>11</v>
       </c>
-      <c r="V13" s="15"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="14"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="13"/>
-      <c r="AK13" s="13"/>
-      <c r="AL13" s="13"/>
-      <c r="AM13" s="13"/>
-      <c r="AN13" s="13"/>
-      <c r="AO13" s="15"/>
-      <c r="AP13" s="17"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="33"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="25"/>
+      <c r="AI13" s="25"/>
+      <c r="AJ13" s="25"/>
+      <c r="AK13" s="25"/>
+      <c r="AL13" s="25"/>
+      <c r="AM13" s="25"/>
+      <c r="AN13" s="25"/>
+      <c r="AO13" s="33"/>
+      <c r="AP13" s="39"/>
     </row>
     <row r="14" spans="2:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
@@ -12142,41 +12265,41 @@
       <c r="AO15" s="4"/>
     </row>
     <row r="16" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13">
+      <c r="C16" s="25"/>
+      <c r="D16" s="25">
         <v>2</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="25">
         <v>2</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="25">
         <v>221</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="25">
         <v>318</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="25">
         <v>10</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="25">
         <v>8.51</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="25">
         <v>1.25</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="25">
         <v>58</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="25">
         <v>58</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="25">
         <v>58</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="25">
         <v>58</v>
       </c>
       <c r="O16" s="5" t="s">
@@ -12200,72 +12323,72 @@
       <c r="U16" s="2">
         <v>3</v>
       </c>
-      <c r="V16" s="15"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="13">
+      <c r="V16" s="33"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="25">
         <v>58</v>
       </c>
-      <c r="Y16" s="13">
+      <c r="Y16" s="25">
         <v>58</v>
       </c>
-      <c r="Z16" s="13">
+      <c r="Z16" s="25">
         <v>59</v>
       </c>
-      <c r="AA16" s="13">
+      <c r="AA16" s="25">
         <v>58</v>
       </c>
-      <c r="AB16" s="13">
+      <c r="AB16" s="25">
         <v>58</v>
       </c>
-      <c r="AC16" s="13">
+      <c r="AC16" s="25">
         <v>59</v>
       </c>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="13">
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="25">
         <v>46</v>
       </c>
-      <c r="AG16" s="13">
+      <c r="AG16" s="25">
         <v>160</v>
       </c>
-      <c r="AH16" s="13">
+      <c r="AH16" s="25">
         <v>147</v>
       </c>
-      <c r="AI16" s="13">
+      <c r="AI16" s="25">
         <v>2</v>
       </c>
-      <c r="AJ16" s="13">
+      <c r="AJ16" s="25">
         <v>2</v>
       </c>
-      <c r="AK16" s="13">
+      <c r="AK16" s="25">
         <v>0</v>
       </c>
-      <c r="AL16" s="13">
+      <c r="AL16" s="25">
         <v>10</v>
       </c>
-      <c r="AM16" s="13">
+      <c r="AM16" s="25">
         <v>5.7450000000000001</v>
       </c>
-      <c r="AN16" s="13">
+      <c r="AN16" s="25">
         <v>5.6920000000000002</v>
       </c>
-      <c r="AO16" s="15"/>
-      <c r="AP16" s="17"/>
+      <c r="AO16" s="33"/>
+      <c r="AP16" s="39"/>
     </row>
     <row r="17" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
       <c r="O17" s="5" t="s">
         <v>56</v>
       </c>
@@ -12287,27 +12410,27 @@
       <c r="U17" s="2">
         <v>11</v>
       </c>
-      <c r="V17" s="15"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="14"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13"/>
-      <c r="AI17" s="13"/>
-      <c r="AJ17" s="13"/>
-      <c r="AK17" s="13"/>
-      <c r="AL17" s="13"/>
-      <c r="AM17" s="13"/>
-      <c r="AN17" s="13"/>
-      <c r="AO17" s="15"/>
-      <c r="AP17" s="17"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="25"/>
+      <c r="AJ17" s="25"/>
+      <c r="AK17" s="25"/>
+      <c r="AL17" s="25"/>
+      <c r="AM17" s="25"/>
+      <c r="AN17" s="25"/>
+      <c r="AO17" s="33"/>
+      <c r="AP17" s="39"/>
     </row>
     <row r="18" spans="2:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
@@ -13359,95 +13482,98 @@
       </c>
       <c r="AO27" s="4"/>
     </row>
-    <row r="28" spans="2:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>16</v>
-      </c>
+    <row r="28" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="4"/>
       <c r="D28" s="4">
         <v>0</v>
       </c>
-      <c r="E28" s="2">
-        <v>14</v>
-      </c>
-      <c r="F28" s="1">
-        <v>767</v>
-      </c>
-      <c r="G28" s="2">
-        <v>583</v>
-      </c>
-      <c r="H28" s="1">
+      <c r="E28" s="4">
+        <v>2</v>
+      </c>
+      <c r="F28" s="4">
+        <v>81</v>
+      </c>
+      <c r="G28" s="4">
+        <v>107</v>
+      </c>
+      <c r="H28" s="4">
         <v>10</v>
       </c>
-      <c r="I28" s="2">
-        <v>8.7420000000000009</v>
-      </c>
-      <c r="J28" s="5">
+      <c r="I28" s="4">
+        <v>6.38</v>
+      </c>
+      <c r="J28" s="4">
         <v>1.25</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q28" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="R28" s="2">
-        <v>4</v>
-      </c>
-      <c r="S28" s="5">
-        <v>1</v>
-      </c>
-      <c r="T28" s="2">
-        <v>1</v>
-      </c>
-      <c r="U28" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="K28" s="4">
+        <v>31</v>
+      </c>
+      <c r="L28" s="4">
+        <v>31</v>
+      </c>
+      <c r="M28" s="4">
+        <v>31</v>
+      </c>
+      <c r="N28" s="4">
+        <v>31</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P28" s="4">
+        <v>30</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>30</v>
+      </c>
+      <c r="R28" s="4">
+        <v>3</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U28" s="4">
+        <v>10</v>
+      </c>
+      <c r="V28" s="4"/>
       <c r="X28" s="4">
-        <v>13</v>
-      </c>
-      <c r="Y28" s="2">
-        <v>13</v>
-      </c>
-      <c r="Z28" s="1">
-        <v>13</v>
-      </c>
-      <c r="AA28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF28" s="4">
-        <v>231</v>
+        <v>31</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>31</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>32</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>31</v>
+      </c>
+      <c r="AB28" s="4">
+        <v>31</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>32</v>
+      </c>
+      <c r="AD28" s="4"/>
+      <c r="AF28" s="2">
+        <v>15</v>
       </c>
       <c r="AG28" s="2">
-        <v>739</v>
-      </c>
-      <c r="AH28" s="1">
-        <v>699</v>
-      </c>
-      <c r="AI28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH28" s="2">
+        <v>24</v>
+      </c>
+      <c r="AI28" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ28" s="2">
         <v>0</v>
       </c>
       <c r="AK28" s="4">
@@ -13457,50 +13583,205 @@
         <v>10</v>
       </c>
       <c r="AM28" s="4">
+        <v>5.4290000000000003</v>
+      </c>
+      <c r="AN28" s="2">
+        <v>5.6920000000000002</v>
+      </c>
+      <c r="AO28" s="4"/>
+    </row>
+    <row r="29" spans="2:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>14</v>
+      </c>
+      <c r="F29" s="1">
+        <v>767</v>
+      </c>
+      <c r="G29" s="2">
+        <v>583</v>
+      </c>
+      <c r="H29" s="1">
+        <v>10</v>
+      </c>
+      <c r="I29" s="2">
+        <v>8.7420000000000009</v>
+      </c>
+      <c r="J29" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R29" s="2">
+        <v>4</v>
+      </c>
+      <c r="S29" s="5">
+        <v>1</v>
+      </c>
+      <c r="T29" s="2">
+        <v>1</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V29" s="4"/>
+      <c r="X29" s="4">
+        <v>13</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>13</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>13</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD29" s="4"/>
+      <c r="AF29" s="4">
+        <v>231</v>
+      </c>
+      <c r="AG29" s="2">
+        <v>739</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>699</v>
+      </c>
+      <c r="AI29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="4">
+        <v>10</v>
+      </c>
+      <c r="AM29" s="4">
         <v>7.2690000000000001</v>
       </c>
-      <c r="AN28" s="4">
+      <c r="AN29" s="4">
         <v>8.202</v>
       </c>
-      <c r="AO28" s="4"/>
+      <c r="AO29" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="142">
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="Y4:Y6"/>
-    <mergeCell ref="Z4:Z6"/>
-    <mergeCell ref="AA4:AA6"/>
-    <mergeCell ref="AB4:AB6"/>
-    <mergeCell ref="AC4:AC6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="K3:U3"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="AC16:AC17"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="AA16:AA17"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="AH16:AH17"/>
+    <mergeCell ref="AG16:AG17"/>
+    <mergeCell ref="AF16:AF17"/>
+    <mergeCell ref="AE16:AE17"/>
+    <mergeCell ref="AD16:AD17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="AP10:AP11"/>
+    <mergeCell ref="AO10:AO11"/>
+    <mergeCell ref="AP12:AP13"/>
+    <mergeCell ref="AO12:AO13"/>
+    <mergeCell ref="AP16:AP17"/>
+    <mergeCell ref="AO16:AO17"/>
+    <mergeCell ref="AN16:AN17"/>
+    <mergeCell ref="AM16:AM17"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="AK16:AK17"/>
+    <mergeCell ref="AJ16:AJ17"/>
+    <mergeCell ref="AI16:AI17"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AE10:AE11"/>
+    <mergeCell ref="AD12:AD13"/>
+    <mergeCell ref="AE12:AE13"/>
+    <mergeCell ref="AI12:AI13"/>
+    <mergeCell ref="AJ12:AJ13"/>
+    <mergeCell ref="AK12:AK13"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AN12:AN13"/>
+    <mergeCell ref="AM12:AM13"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="AF12:AF13"/>
+    <mergeCell ref="AG12:AG13"/>
+    <mergeCell ref="AH12:AH13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="Z12:Z13"/>
+    <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="AM10:AM11"/>
+    <mergeCell ref="AN10:AN11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="AH10:AH11"/>
+    <mergeCell ref="AI10:AI11"/>
+    <mergeCell ref="AJ10:AJ11"/>
+    <mergeCell ref="AK10:AK11"/>
+    <mergeCell ref="AL10:AL11"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="AC10:AC11"/>
+    <mergeCell ref="AF10:AF11"/>
     <mergeCell ref="AG10:AG11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="N10:N11"/>
@@ -13525,89 +13806,41 @@
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="X2:AC2"/>
     <mergeCell ref="D2:U2"/>
-    <mergeCell ref="AM10:AM11"/>
-    <mergeCell ref="AN10:AN11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="AH10:AH11"/>
-    <mergeCell ref="AI10:AI11"/>
-    <mergeCell ref="AJ10:AJ11"/>
-    <mergeCell ref="AK10:AK11"/>
-    <mergeCell ref="AL10:AL11"/>
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="AC10:AC11"/>
-    <mergeCell ref="AF10:AF11"/>
-    <mergeCell ref="AN12:AN13"/>
-    <mergeCell ref="AM12:AM13"/>
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="AF12:AF13"/>
-    <mergeCell ref="AG12:AG13"/>
-    <mergeCell ref="AH12:AH13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="Z12:Z13"/>
-    <mergeCell ref="AA12:AA13"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="AP10:AP11"/>
-    <mergeCell ref="AO10:AO11"/>
-    <mergeCell ref="AP12:AP13"/>
-    <mergeCell ref="AO12:AO13"/>
-    <mergeCell ref="AP16:AP17"/>
-    <mergeCell ref="AO16:AO17"/>
-    <mergeCell ref="AN16:AN17"/>
-    <mergeCell ref="AM16:AM17"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="AK16:AK17"/>
-    <mergeCell ref="AJ16:AJ17"/>
-    <mergeCell ref="AI16:AI17"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AE10:AE11"/>
-    <mergeCell ref="AD12:AD13"/>
-    <mergeCell ref="AE12:AE13"/>
-    <mergeCell ref="AI12:AI13"/>
-    <mergeCell ref="AJ12:AJ13"/>
-    <mergeCell ref="AK12:AK13"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AC16:AC17"/>
-    <mergeCell ref="AB16:AB17"/>
-    <mergeCell ref="AA16:AA17"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="Y16:Y17"/>
-    <mergeCell ref="AH16:AH17"/>
-    <mergeCell ref="AG16:AG17"/>
-    <mergeCell ref="AF16:AF17"/>
-    <mergeCell ref="AE16:AE17"/>
-    <mergeCell ref="AD16:AD17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="K3:U3"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="Y4:Y6"/>
+    <mergeCell ref="Z4:Z6"/>
+    <mergeCell ref="AA4:AA6"/>
+    <mergeCell ref="AB4:AB6"/>
+    <mergeCell ref="AC4:AC6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13619,7 +13852,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH18" sqref="AH18"/>
+      <selection activeCell="AH16" sqref="AH16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13633,7 +13866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543676F3-4F14-4D41-B3B3-EE3B633252FE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>

--- a/reports/hls/report-hls-solutions.xlsx
+++ b/reports/hls/report-hls-solutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco D\universita\magistrale\sintesi-ad-alto-livello-di-sistemi-digitali\progetti\progetto1\reports\hls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3F95B8-7BCB-458A-8041-6FA26E65A96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C01C30-4A88-4392-900F-BABBA70AA65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{478786F9-0C08-4B95-A9F2-D12EA5517A72}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="65">
   <si>
     <t>Unoptimized</t>
   </si>
@@ -218,12 +218,6 @@
     <t>Loop 1</t>
   </si>
   <si>
-    <t>5~7</t>
-  </si>
-  <si>
-    <t>9~13</t>
-  </si>
-  <si>
     <t>2~5</t>
   </si>
   <si>
@@ -237,6 +231,9 @@
   </si>
   <si>
     <t>Bitwidth Optimization</t>
+  </si>
+  <si>
+    <t>3~4</t>
   </si>
 </sst>
 </file>
@@ -470,25 +467,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -497,16 +497,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -518,37 +545,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -692,13 +689,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$29</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$29)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$18,Data!$B$20:$B$33)</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -714,46 +711,46 @@
                 <c:pt idx="4">
                   <c:v>Loop Unrolling (pragma) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Loop Unrolling (manual) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Loop Unrolling (pragma) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>Operation Chaining clk=10ns</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>Operation Chaining clk=9ns</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>Operation Chaining clk=8ns</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>Operation Chaining clk=7ns</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>Operation Chaining clk=6ns</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>Operation Chaining clk=5ns</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>Operation Chaining clk=4ns</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>Bitwidth Optimization</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -764,14 +761,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$D$8:$D$29</c15:sqref>
+                    <c15:sqref>Data!$D$8:$D$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$D$8:$D$10,Data!$D$12,Data!$D$14:$D$16,Data!$D$18:$D$29)</c:f>
+              <c:f>(Data!$D$8:$D$10,Data!$D$12,Data!$D$14:$D$18,Data!$D$20:$D$33)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -785,32 +782,20 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
@@ -827,6 +812,18 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -883,13 +880,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$29</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$29)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$18,Data!$B$20:$B$33)</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -905,46 +902,46 @@
                 <c:pt idx="4">
                   <c:v>Loop Unrolling (pragma) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Loop Unrolling (manual) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Loop Unrolling (pragma) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>Operation Chaining clk=10ns</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>Operation Chaining clk=9ns</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>Operation Chaining clk=8ns</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>Operation Chaining clk=7ns</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>Operation Chaining clk=6ns</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>Operation Chaining clk=5ns</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>Operation Chaining clk=4ns</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>Bitwidth Optimization</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -955,14 +952,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$E$8:$E$29</c15:sqref>
+                    <c15:sqref>Data!$E$8:$E$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$E$8:$E$10,Data!$E$12,Data!$E$14:$E$16,Data!$E$18:$E$29)</c:f>
+              <c:f>(Data!$E$8:$E$10,Data!$E$12,Data!$E$14:$E$18,Data!$E$20:$E$33)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -976,31 +973,19 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>4</c:v>
@@ -1015,9 +1000,21 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
@@ -1074,13 +1071,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$29</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$29)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$18,Data!$B$20:$B$33)</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -1096,46 +1093,46 @@
                 <c:pt idx="4">
                   <c:v>Loop Unrolling (pragma) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Loop Unrolling (manual) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Loop Unrolling (pragma) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>Operation Chaining clk=10ns</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>Operation Chaining clk=9ns</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>Operation Chaining clk=8ns</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>Operation Chaining clk=7ns</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>Operation Chaining clk=6ns</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>Operation Chaining clk=5ns</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>Operation Chaining clk=4ns</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>Bitwidth Optimization</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -1146,14 +1143,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$F$8:$F$29</c15:sqref>
+                    <c15:sqref>Data!$F$8:$F$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$F$8:$F$10,Data!$F$12,Data!$F$14:$F$16,Data!$F$18:$F$29)</c:f>
+              <c:f>(Data!$F$8:$F$10,Data!$F$12,Data!$F$14:$F$18,Data!$F$20:$F$33)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>287</c:v>
                 </c:pt>
@@ -1167,48 +1164,48 @@
                   <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>424</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>680</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>221</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>665</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>952</c:v>
-                </c:pt>
                 <c:pt idx="9">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>928</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>287</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>619</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>619</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>623</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>725</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>725</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>832</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>710</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>81</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>767</c:v>
                 </c:pt>
               </c:numCache>
@@ -1263,13 +1260,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$29</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$29)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$18,Data!$B$20:$B$33)</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -1285,46 +1282,46 @@
                 <c:pt idx="4">
                   <c:v>Loop Unrolling (pragma) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Loop Unrolling (manual) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Loop Unrolling (pragma) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>Operation Chaining clk=10ns</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>Operation Chaining clk=9ns</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>Operation Chaining clk=8ns</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>Operation Chaining clk=7ns</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>Operation Chaining clk=6ns</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>Operation Chaining clk=5ns</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>Operation Chaining clk=4ns</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>Bitwidth Optimization</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -1335,14 +1332,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$G$8:$G$29</c15:sqref>
+                    <c15:sqref>Data!$G$8:$G$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$G$8:$G$10,Data!$G$12,Data!$G$14:$G$16,Data!$G$18:$G$29)</c:f>
+              <c:f>(Data!$G$8:$G$10,Data!$G$12,Data!$G$14:$G$18,Data!$G$20:$G$33)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>233</c:v>
                 </c:pt>
@@ -1356,48 +1353,48 @@
                   <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>538</c:v>
+                  <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>629</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1006</c:v>
-                </c:pt>
                 <c:pt idx="9">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>748</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>233</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>301</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>301</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>305</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>221</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>221</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>286</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>621</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>107</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>583</c:v>
                 </c:pt>
               </c:numCache>
@@ -1800,13 +1797,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$28</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$28)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$18,Data!$B$20:$B$32)</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -1822,43 +1819,43 @@
                 <c:pt idx="4">
                   <c:v>Loop Unrolling (pragma) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Loop Unrolling (manual) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Loop Unrolling (pragma) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>Operation Chaining clk=10ns</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>Operation Chaining clk=9ns</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>Operation Chaining clk=8ns</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>Operation Chaining clk=7ns</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>Operation Chaining clk=6ns</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>Operation Chaining clk=5ns</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>Operation Chaining clk=4ns</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>Bitwidth Optimization</c:v>
                 </c:pt>
               </c:strCache>
@@ -1869,14 +1866,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$K$8:$K$28</c15:sqref>
+                    <c15:sqref>Data!$K$8:$K$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$K$8:$K$10,Data!$K$12,Data!$K$14:$K$16,Data!$K$18:$K$28)</c:f>
+              <c:f>(Data!$K$8:$K$10,Data!$K$12,Data!$K$14:$K$18,Data!$K$20:$K$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>23</c:v>
                 </c:pt>
@@ -1890,45 +1887,45 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29</c:v>
-                </c:pt>
                 <c:pt idx="9">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
@@ -1985,13 +1982,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$28</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$28)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$18,Data!$B$20:$B$32)</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -2007,43 +2004,43 @@
                 <c:pt idx="4">
                   <c:v>Loop Unrolling (pragma) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Loop Unrolling (manual) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Loop Unrolling (pragma) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>Operation Chaining clk=10ns</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>Operation Chaining clk=9ns</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>Operation Chaining clk=8ns</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>Operation Chaining clk=7ns</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>Operation Chaining clk=6ns</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>Operation Chaining clk=5ns</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>Operation Chaining clk=4ns</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>Bitwidth Optimization</c:v>
                 </c:pt>
               </c:strCache>
@@ -2054,14 +2051,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$L$8:$L$28</c15:sqref>
+                    <c15:sqref>Data!$L$8:$L$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$L$8:$L$10,Data!$L$12,Data!$L$14:$L$16,Data!$L$18:$L$28)</c:f>
+              <c:f>(Data!$L$8:$L$10,Data!$L$12,Data!$L$14:$L$18,Data!$L$20:$L$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>45</c:v>
                 </c:pt>
@@ -2075,45 +2072,45 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>47</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50</c:v>
-                </c:pt>
                 <c:pt idx="9">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>139</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
@@ -2509,13 +2506,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$28</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$28)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$18,Data!$B$20:$B$32)</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -2531,43 +2528,43 @@
                 <c:pt idx="4">
                   <c:v>Loop Unrolling (pragma) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Loop Unrolling (manual) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Loop Unrolling (pragma) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>Operation Chaining clk=10ns</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>Operation Chaining clk=9ns</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>Operation Chaining clk=8ns</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>Operation Chaining clk=7ns</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>Operation Chaining clk=6ns</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>Operation Chaining clk=5ns</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>Operation Chaining clk=4ns</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>Bitwidth Optimization</c:v>
                 </c:pt>
               </c:strCache>
@@ -2578,14 +2575,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$M$8:$M$28</c15:sqref>
+                    <c15:sqref>Data!$M$8:$M$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$M$8:$M$10,Data!$M$12,Data!$M$14:$M$16,Data!$M$18:$M$28)</c:f>
+              <c:f>(Data!$M$8:$M$10,Data!$M$12,Data!$M$14:$M$18,Data!$M$20:$M$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>23</c:v>
                 </c:pt>
@@ -2599,45 +2596,45 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29</c:v>
-                </c:pt>
                 <c:pt idx="9">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
@@ -2694,13 +2691,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$28</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$28)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$18,Data!$B$20:$B$32)</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -2716,43 +2713,43 @@
                 <c:pt idx="4">
                   <c:v>Loop Unrolling (pragma) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Loop Unrolling (manual) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Loop Unrolling (pragma) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>Operation Chaining clk=10ns</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>Operation Chaining clk=9ns</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>Operation Chaining clk=8ns</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>Operation Chaining clk=7ns</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>Operation Chaining clk=6ns</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>Operation Chaining clk=5ns</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>Operation Chaining clk=4ns</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>Bitwidth Optimization</c:v>
                 </c:pt>
               </c:strCache>
@@ -2763,14 +2760,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$N$8:$N$28</c15:sqref>
+                    <c15:sqref>Data!$N$8:$N$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$N$8:$N$10,Data!$N$12,Data!$N$14:$N$16,Data!$N$18:$N$28)</c:f>
+              <c:f>(Data!$N$8:$N$10,Data!$N$12,Data!$N$14:$N$18,Data!$N$20:$N$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>45</c:v>
                 </c:pt>
@@ -2784,45 +2781,45 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>47</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50</c:v>
-                </c:pt>
                 <c:pt idx="9">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>139</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
@@ -3193,13 +3190,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$28</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$28)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$18,Data!$B$20:$B$32)</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -3215,43 +3212,43 @@
                 <c:pt idx="4">
                   <c:v>Loop Unrolling (pragma) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Loop Unrolling (manual) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Loop Unrolling (pragma) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>Operation Chaining clk=10ns</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>Operation Chaining clk=9ns</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>Operation Chaining clk=8ns</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>Operation Chaining clk=7ns</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>Operation Chaining clk=6ns</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>Operation Chaining clk=5ns</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>Operation Chaining clk=4ns</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>Bitwidth Optimization</c:v>
                 </c:pt>
               </c:strCache>
@@ -3262,14 +3259,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$U$8:$U$28</c15:sqref>
+                    <c15:sqref>Data!$U$8:$U$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$U$8:$U$10,Data!$U$12,Data!$U$14:$U$16,Data!$U$18:$U$28)</c:f>
+              <c:f>(Data!$U$8:$U$10,Data!$U$12,Data!$U$14:$U$18,Data!$U$20:$U$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>11</c:v>
                 </c:pt>
@@ -3283,28 +3280,28 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>11</c:v>
@@ -3322,6 +3319,18 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -3717,13 +3726,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$28</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$28)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$18,Data!$B$20:$B$32)</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -3739,43 +3748,43 @@
                 <c:pt idx="4">
                   <c:v>Loop Unrolling (pragma) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Loop Unrolling (manual) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Loop Unrolling (pragma) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>Operation Chaining clk=10ns</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>Operation Chaining clk=9ns</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>Operation Chaining clk=8ns</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>Operation Chaining clk=7ns</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>Operation Chaining clk=6ns</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>Operation Chaining clk=5ns</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>Operation Chaining clk=4ns</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>Bitwidth Optimization</c:v>
                 </c:pt>
               </c:strCache>
@@ -3786,14 +3795,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$X$8:$X$28</c15:sqref>
+                    <c15:sqref>Data!$X$8:$X$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$X$8:$X$10,Data!$X$12,Data!$X$14:$X$16,Data!$X$18:$X$28)</c:f>
+              <c:f>(Data!$X$8:$X$10,Data!$X$12,Data!$X$14:$X$18,Data!$X$20:$X$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>43</c:v>
                 </c:pt>
@@ -3807,45 +3816,45 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>38</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35</c:v>
-                </c:pt>
                 <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
@@ -3902,13 +3911,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$28</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$28)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$18,Data!$B$20:$B$32)</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -3924,43 +3933,43 @@
                 <c:pt idx="4">
                   <c:v>Loop Unrolling (pragma) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Loop Unrolling (manual) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Loop Unrolling (pragma) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>Operation Chaining clk=10ns</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>Operation Chaining clk=9ns</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>Operation Chaining clk=8ns</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>Operation Chaining clk=7ns</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>Operation Chaining clk=6ns</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>Operation Chaining clk=5ns</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>Operation Chaining clk=4ns</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>Bitwidth Optimization</c:v>
                 </c:pt>
               </c:strCache>
@@ -3971,14 +3980,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$Y$8:$Y$28</c15:sqref>
+                    <c15:sqref>Data!$Y$8:$Y$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$Y$8:$Y$10,Data!$Y$12,Data!$Y$14:$Y$16,Data!$Y$18:$Y$28)</c:f>
+              <c:f>(Data!$Y$8:$Y$10,Data!$Y$12,Data!$Y$14:$Y$18,Data!$Y$20:$Y$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>43</c:v>
                 </c:pt>
@@ -3992,45 +4001,45 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>38</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35</c:v>
-                </c:pt>
                 <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
@@ -4087,13 +4096,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$28</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$28)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$18,Data!$B$20:$B$32)</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -4109,43 +4118,43 @@
                 <c:pt idx="4">
                   <c:v>Loop Unrolling (pragma) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Loop Unrolling (manual) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Loop Unrolling (pragma) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>Operation Chaining clk=10ns</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>Operation Chaining clk=9ns</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>Operation Chaining clk=8ns</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>Operation Chaining clk=7ns</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>Operation Chaining clk=6ns</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>Operation Chaining clk=5ns</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>Operation Chaining clk=4ns</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>Bitwidth Optimization</c:v>
                 </c:pt>
               </c:strCache>
@@ -4156,14 +4165,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$Z$8:$Z$28</c15:sqref>
+                    <c15:sqref>Data!$Z$8:$Z$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$Z$8:$Z$10,Data!$Z$12,Data!$Z$14:$Z$16,Data!$Z$18:$Z$28)</c:f>
+              <c:f>(Data!$Z$8:$Z$10,Data!$Z$12,Data!$Z$14:$Z$18,Data!$Z$20:$Z$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44</c:v>
                 </c:pt>
@@ -4177,45 +4186,45 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>39</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>36</c:v>
-                </c:pt>
                 <c:pt idx="9">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>131</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
@@ -4611,13 +4620,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$28</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$28)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$18,Data!$B$20:$B$32)</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -4633,43 +4642,43 @@
                 <c:pt idx="4">
                   <c:v>Loop Unrolling (pragma) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Loop Unrolling (manual) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Loop Unrolling (pragma) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>Operation Chaining clk=10ns</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>Operation Chaining clk=9ns</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>Operation Chaining clk=8ns</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>Operation Chaining clk=7ns</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>Operation Chaining clk=6ns</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>Operation Chaining clk=5ns</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>Operation Chaining clk=4ns</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>Bitwidth Optimization</c:v>
                 </c:pt>
               </c:strCache>
@@ -4680,14 +4689,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$AA$8:$AA$28</c15:sqref>
+                    <c15:sqref>Data!$AA$8:$AA$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$AA$8:$AA$10,Data!$AA$12,Data!$AA$14:$AA$16,Data!$AA$18:$AA$28)</c:f>
+              <c:f>(Data!$AA$8:$AA$10,Data!$AA$12,Data!$AA$14:$AA$18,Data!$AA$20:$AA$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>43</c:v>
                 </c:pt>
@@ -4701,45 +4710,45 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>38</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35</c:v>
-                </c:pt>
                 <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
@@ -4796,13 +4805,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$28</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$28)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$18,Data!$B$20:$B$32)</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -4818,43 +4827,43 @@
                 <c:pt idx="4">
                   <c:v>Loop Unrolling (pragma) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Loop Unrolling (manual) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Loop Unrolling (pragma) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>Operation Chaining clk=10ns</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>Operation Chaining clk=9ns</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>Operation Chaining clk=8ns</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>Operation Chaining clk=7ns</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>Operation Chaining clk=6ns</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>Operation Chaining clk=5ns</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>Operation Chaining clk=4ns</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>Bitwidth Optimization</c:v>
                 </c:pt>
               </c:strCache>
@@ -4865,14 +4874,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$AB$8:$AB$28</c15:sqref>
+                    <c15:sqref>Data!$AB$8:$AB$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$AB$8:$AB$10,Data!$AB$12,Data!$AB$14:$AB$16,Data!$AB$18:$AB$28)</c:f>
+              <c:f>(Data!$AB$8:$AB$10,Data!$AB$12,Data!$AB$14:$AB$18,Data!$AB$20:$AB$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>43</c:v>
                 </c:pt>
@@ -4886,45 +4895,45 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>38</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35</c:v>
-                </c:pt>
                 <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
@@ -4981,13 +4990,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$28</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$28)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$18,Data!$B$20:$B$32)</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -5003,43 +5012,43 @@
                 <c:pt idx="4">
                   <c:v>Loop Unrolling (pragma) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Loop Unrolling (manual) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Loop Unrolling (pragma) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>Operation Chaining clk=10ns</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>Operation Chaining clk=9ns</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>Operation Chaining clk=8ns</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>Operation Chaining clk=7ns</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>Operation Chaining clk=6ns</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>Operation Chaining clk=5ns</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>Operation Chaining clk=4ns</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>Bitwidth Optimization</c:v>
                 </c:pt>
               </c:strCache>
@@ -5050,14 +5059,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$AC$8:$AC$28</c15:sqref>
+                    <c15:sqref>Data!$AC$8:$AC$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$AC$8:$AC$10,Data!$AC$12,Data!$AC$14:$AC$16,Data!$AC$18:$AC$28)</c:f>
+              <c:f>(Data!$AC$8:$AC$10,Data!$AC$12,Data!$AC$14:$AC$18,Data!$AC$20:$AC$32)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44</c:v>
                 </c:pt>
@@ -5071,45 +5080,45 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>39</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>36</c:v>
-                </c:pt>
                 <c:pt idx="9">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>131</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
@@ -5505,13 +5514,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$29</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$29)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$18,Data!$B$20:$B$33)</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -5527,46 +5536,46 @@
                 <c:pt idx="4">
                   <c:v>Loop Unrolling (pragma) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Loop Unrolling (manual) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Loop Unrolling (pragma) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>Operation Chaining clk=10ns</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>Operation Chaining clk=9ns</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>Operation Chaining clk=8ns</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>Operation Chaining clk=7ns</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>Operation Chaining clk=6ns</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>Operation Chaining clk=5ns</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>Operation Chaining clk=4ns</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>Bitwidth Optimization</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -5577,14 +5586,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$AF$8:$AF$29</c15:sqref>
+                    <c15:sqref>Data!$AF$8:$AF$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$AF$8:$AF$10,Data!$AF$12,Data!$AF$14:$AF$16,Data!$AF$18:$AF$29)</c:f>
+              <c:f>(Data!$AF$8:$AF$10,Data!$AF$12,Data!$AF$14:$AF$18,Data!$AF$20:$AF$33)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>81</c:v>
                 </c:pt>
@@ -5598,48 +5607,48 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>114</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>318</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>204</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>231</c:v>
                 </c:pt>
               </c:numCache>
@@ -5696,13 +5705,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$29</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$29)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$18,Data!$B$20:$B$33)</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -5718,46 +5727,46 @@
                 <c:pt idx="4">
                   <c:v>Loop Unrolling (pragma) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Loop Unrolling (manual) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Loop Unrolling (pragma) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>Operation Chaining clk=10ns</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>Operation Chaining clk=9ns</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>Operation Chaining clk=8ns</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>Operation Chaining clk=7ns</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>Operation Chaining clk=6ns</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>Operation Chaining clk=5ns</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>Operation Chaining clk=4ns</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>Bitwidth Optimization</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -5768,14 +5777,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$AG$8:$AG$29</c15:sqref>
+                    <c15:sqref>Data!$AG$8:$AG$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$AG$8:$AG$10,Data!$AG$12,Data!$AG$14:$AG$16,Data!$AG$18:$AG$29)</c:f>
+              <c:f>(Data!$AG$8:$AG$10,Data!$AG$12,Data!$AG$14:$AG$18,Data!$AG$20:$AG$33)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>275</c:v>
                 </c:pt>
@@ -5789,48 +5798,48 @@
                   <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>384</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>440</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>160</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>533</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1016</c:v>
-                </c:pt>
                 <c:pt idx="9">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1145</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>275</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>276</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>276</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>186</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>186</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>186</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>188</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>311</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>739</c:v>
                 </c:pt>
               </c:numCache>
@@ -5887,13 +5896,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$29</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$29)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$18,Data!$B$20:$B$33)</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -5909,46 +5918,46 @@
                 <c:pt idx="4">
                   <c:v>Loop Unrolling (pragma) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Loop Unrolling (manual) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Loop Unrolling (pragma) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>Operation Chaining clk=10ns</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>Operation Chaining clk=9ns</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>Operation Chaining clk=8ns</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>Operation Chaining clk=7ns</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>Operation Chaining clk=6ns</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>Operation Chaining clk=5ns</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>Operation Chaining clk=4ns</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>Bitwidth Optimization</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -5959,14 +5968,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$AH$8:$AH$29</c15:sqref>
+                    <c15:sqref>Data!$AH$8:$AH$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$AH$8:$AH$10,Data!$AH$12,Data!$AH$14:$AH$16,Data!$AH$18:$AH$29)</c:f>
+              <c:f>(Data!$AH$8:$AH$10,Data!$AH$12,Data!$AH$14:$AH$18,Data!$AH$20:$AH$33)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>160</c:v>
                 </c:pt>
@@ -5980,48 +5989,48 @@
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>278</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>564</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>843</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>147</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>449</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>714</c:v>
-                </c:pt>
                 <c:pt idx="9">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>160</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>226</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>226</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>222</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>241</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>258</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>376</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>455</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>699</c:v>
                 </c:pt>
               </c:numCache>
@@ -6076,13 +6085,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$29</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$29)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$18,Data!$B$20:$B$33)</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -6098,46 +6107,46 @@
                 <c:pt idx="4">
                   <c:v>Loop Unrolling (pragma) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Loop Unrolling (manual) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Loop Unrolling (pragma) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>Operation Chaining clk=10ns</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>Operation Chaining clk=9ns</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>Operation Chaining clk=8ns</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>Operation Chaining clk=7ns</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>Operation Chaining clk=6ns</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>Operation Chaining clk=5ns</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>Operation Chaining clk=4ns</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>Bitwidth Optimization</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -6148,14 +6157,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$AI$8:$AI$29</c15:sqref>
+                    <c15:sqref>Data!$AI$8:$AI$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$AI$8:$AI$10,Data!$AI$12,Data!$AI$14:$AI$16,Data!$AI$18:$AI$29)</c:f>
+              <c:f>(Data!$AI$8:$AI$10,Data!$AI$12,Data!$AI$14:$AI$18,Data!$AI$20:$AI$33)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -6171,46 +6180,46 @@
                 <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="11">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6265,13 +6274,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$B$8:$B$29</c15:sqref>
+                    <c15:sqref>Data!$B$8:$B$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$16,Data!$B$18:$B$29)</c:f>
+              <c:f>(Data!$B$8:$B$10,Data!$B$12,Data!$B$14:$B$18,Data!$B$20:$B$33)</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>Unoptimized</c:v>
                 </c:pt>
@@ -6287,46 +6296,46 @@
                 <c:pt idx="4">
                   <c:v>Loop Unrolling (pragma) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Loop Unrolling (manual) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Loop Unrolling (pragma) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>Loop Unrolling (pragma+partitioning) factor=4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>Operation Chaining clk=10ns</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>Operation Chaining clk=9ns</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>Operation Chaining clk=8ns</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>Operation Chaining clk=7ns</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>Operation Chaining clk=6ns</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>Operation Chaining clk=5ns</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>Operation Chaining clk=4ns</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>Loop Pipelining</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>Bitwidth Optimization</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>AXI</c:v>
                 </c:pt>
               </c:strCache>
@@ -6337,14 +6346,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$AJ$8:$AJ$29</c15:sqref>
+                    <c15:sqref>Data!$AJ$8:$AJ$33</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Data!$AJ$8:$AJ$10,Data!$AJ$12,Data!$AJ$14:$AJ$16,Data!$AJ$18:$AJ$29)</c:f>
+              <c:f>(Data!$AJ$8:$AJ$10,Data!$AJ$12,Data!$AJ$14:$AJ$18,Data!$AJ$20:$AJ$33)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6358,32 +6367,20 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6400,6 +6397,18 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -11196,10 +11205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32F8C0C-32ED-409A-A129-79038668F278}">
-  <dimension ref="B2:AP29"/>
+  <dimension ref="B2:AP33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AG35" sqref="AG35"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AO22" sqref="AO22:AO23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11227,242 +11236,242 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:42" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
       <c r="V2" s="7"/>
-      <c r="X2" s="35" t="s">
+      <c r="X2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
       <c r="AD2" s="7"/>
-      <c r="AF2" s="35" t="s">
+      <c r="AF2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18"/>
     </row>
     <row r="3" spans="2:42" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="20" t="s">
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="20" t="s">
+      <c r="I3" s="22"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="28"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="38"/>
       <c r="V3" s="7"/>
-      <c r="X3" s="20" t="s">
+      <c r="X3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="20" t="s">
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="22"/>
-      <c r="AF3" s="20" t="s">
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="26"/>
+      <c r="AF3" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="21"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="20" t="s">
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="AM3" s="21"/>
-      <c r="AN3" s="21"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="22"/>
       <c r="AO3" s="4"/>
     </row>
     <row r="4" spans="2:42" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="18" t="s">
+      <c r="L4" s="39"/>
+      <c r="M4" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="32"/>
-      <c r="O4" s="29" t="s">
+      <c r="N4" s="31"/>
+      <c r="O4" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="31"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="29"/>
       <c r="V4" s="7"/>
-      <c r="X4" s="13" t="s">
+      <c r="X4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="Y4" s="13" t="s">
+      <c r="Y4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="Z4" s="13" t="s">
+      <c r="Z4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AA4" s="13" t="s">
+      <c r="AA4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AB4" s="13" t="s">
+      <c r="AB4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="AC4" s="13" t="s">
+      <c r="AC4" s="19" t="s">
         <v>30</v>
       </c>
       <c r="AD4" s="7"/>
-      <c r="AF4" s="13" t="s">
+      <c r="AF4" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="AG4" s="13" t="s">
+      <c r="AG4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="AH4" s="13" t="s">
+      <c r="AH4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="AI4" s="13" t="s">
+      <c r="AI4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AJ4" s="13" t="s">
+      <c r="AJ4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AK4" s="13" t="s">
+      <c r="AK4" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="AL4" s="13" t="s">
+      <c r="AL4" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="AM4" s="36" t="s">
+      <c r="AM4" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="AN4" s="36" t="s">
+      <c r="AN4" s="23" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="13" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="P5" s="23" t="s">
+      <c r="P5" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="25" t="s">
+      <c r="Q5" s="35"/>
+      <c r="R5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="23" t="s">
+      <c r="S5" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="25" t="s">
+      <c r="T5" s="35"/>
+      <c r="U5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="14"/>
-      <c r="AH5" s="14"/>
-      <c r="AI5" s="14"/>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="14"/>
-      <c r="AL5" s="14"/>
-      <c r="AM5" s="37"/>
-      <c r="AN5" s="37"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="16"/>
+      <c r="AJ5" s="16"/>
+      <c r="AK5" s="16"/>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="24"/>
     </row>
     <row r="6" spans="2:42" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="17"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="33"/>
       <c r="K6" s="10" t="s">
         <v>29</v>
       </c>
@@ -11475,38 +11484,38 @@
       <c r="N6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="15"/>
+      <c r="O6" s="20"/>
       <c r="P6" s="12" t="s">
         <v>29</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="26"/>
+      <c r="R6" s="36"/>
       <c r="S6" s="9" t="s">
         <v>35</v>
       </c>
       <c r="T6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="U6" s="26"/>
+      <c r="U6" s="36"/>
       <c r="V6" s="8"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
       <c r="AD6" s="8"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="38"/>
-      <c r="AN6" s="38"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="20"/>
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="25"/>
     </row>
     <row r="8" spans="2:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -11719,41 +11728,41 @@
       <c r="AO9" s="4"/>
     </row>
     <row r="10" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13">
         <v>0</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="13">
         <v>2</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="13">
         <v>205</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="13">
         <v>214</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="13">
         <v>10</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="13">
         <v>8.51</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="13">
         <v>1.25</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="13">
         <v>66</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="13">
         <v>66</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="13">
         <v>66</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10" s="13">
         <v>66</v>
       </c>
       <c r="O10" s="5" t="s">
@@ -11777,72 +11786,72 @@
       <c r="U10" s="2">
         <v>10</v>
       </c>
-      <c r="V10" s="33"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="25">
+      <c r="V10" s="15"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="13">
         <v>66</v>
       </c>
-      <c r="Y10" s="25">
+      <c r="Y10" s="13">
         <v>66</v>
       </c>
-      <c r="Z10" s="25">
+      <c r="Z10" s="13">
         <v>67</v>
       </c>
-      <c r="AA10" s="25">
+      <c r="AA10" s="13">
         <v>66</v>
       </c>
-      <c r="AB10" s="25">
+      <c r="AB10" s="13">
         <v>66</v>
       </c>
-      <c r="AC10" s="25">
+      <c r="AC10" s="13">
         <v>67</v>
       </c>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="25">
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="13">
         <v>44</v>
       </c>
-      <c r="AG10" s="25">
+      <c r="AG10" s="13">
         <v>157</v>
       </c>
-      <c r="AH10" s="25">
+      <c r="AH10" s="13">
         <v>106</v>
       </c>
-      <c r="AI10" s="25">
+      <c r="AI10" s="13">
         <v>2</v>
       </c>
-      <c r="AJ10" s="25">
+      <c r="AJ10" s="13">
         <v>0</v>
       </c>
-      <c r="AK10" s="25">
+      <c r="AK10" s="13">
         <v>0</v>
       </c>
-      <c r="AL10" s="25">
+      <c r="AL10" s="13">
         <v>10</v>
       </c>
-      <c r="AM10" s="25">
+      <c r="AM10" s="13">
         <v>5.7450000000000001</v>
       </c>
-      <c r="AN10" s="25">
+      <c r="AN10" s="13">
         <v>6.3630000000000004</v>
       </c>
-      <c r="AO10" s="33"/>
-      <c r="AP10" s="39"/>
+      <c r="AO10" s="15"/>
+      <c r="AP10" s="17"/>
     </row>
     <row r="11" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
       <c r="O11" s="5" t="s">
         <v>56</v>
       </c>
@@ -11864,64 +11873,64 @@
       <c r="U11" s="2">
         <v>11</v>
       </c>
-      <c r="V11" s="33"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="25"/>
-      <c r="AD11" s="33"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="25"/>
-      <c r="AG11" s="25"/>
-      <c r="AH11" s="25"/>
-      <c r="AI11" s="25"/>
-      <c r="AJ11" s="25"/>
-      <c r="AK11" s="25"/>
-      <c r="AL11" s="25"/>
-      <c r="AM11" s="25"/>
-      <c r="AN11" s="25"/>
-      <c r="AO11" s="33"/>
-      <c r="AP11" s="39"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="15"/>
+      <c r="AP11" s="17"/>
     </row>
     <row r="12" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13">
         <v>2</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="13">
         <v>2</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="13">
         <v>145</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="13">
         <v>236</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="13">
         <v>10</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="13">
         <v>8.51</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="13">
         <v>1.25</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="13">
         <v>56</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="13">
         <v>56</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M12" s="13">
         <v>56</v>
       </c>
-      <c r="N12" s="25">
+      <c r="N12" s="13">
         <v>56</v>
       </c>
       <c r="O12" s="5" t="s">
@@ -11945,72 +11954,72 @@
       <c r="U12" s="2">
         <v>5</v>
       </c>
-      <c r="V12" s="33"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="25">
+      <c r="V12" s="15"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="13">
         <v>56</v>
       </c>
-      <c r="Y12" s="25">
+      <c r="Y12" s="13">
         <v>56</v>
       </c>
-      <c r="Z12" s="25">
+      <c r="Z12" s="13">
         <v>57</v>
       </c>
-      <c r="AA12" s="25">
+      <c r="AA12" s="13">
         <v>56</v>
       </c>
-      <c r="AB12" s="25">
+      <c r="AB12" s="13">
         <v>56</v>
       </c>
-      <c r="AC12" s="25">
+      <c r="AC12" s="13">
         <v>57</v>
       </c>
-      <c r="AD12" s="33"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="25">
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="13">
         <v>31</v>
       </c>
-      <c r="AG12" s="25">
+      <c r="AG12" s="13">
         <v>97</v>
       </c>
-      <c r="AH12" s="25">
+      <c r="AH12" s="13">
         <v>72</v>
       </c>
-      <c r="AI12" s="25">
+      <c r="AI12" s="13">
         <v>2</v>
       </c>
-      <c r="AJ12" s="25">
+      <c r="AJ12" s="13">
         <v>2</v>
       </c>
-      <c r="AK12" s="25">
+      <c r="AK12" s="13">
         <v>0</v>
       </c>
-      <c r="AL12" s="25">
+      <c r="AL12" s="13">
         <v>10</v>
       </c>
-      <c r="AM12" s="25">
+      <c r="AM12" s="13">
         <v>5.7450000000000001</v>
       </c>
-      <c r="AN12" s="25">
+      <c r="AN12" s="13">
         <v>5.6920000000000002</v>
       </c>
-      <c r="AO12" s="33"/>
-      <c r="AP12" s="39"/>
+      <c r="AO12" s="15"/>
+      <c r="AP12" s="17"/>
     </row>
     <row r="13" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
       <c r="O13" s="5" t="s">
         <v>56</v>
       </c>
@@ -12032,76 +12041,77 @@
       <c r="U13" s="2">
         <v>11</v>
       </c>
-      <c r="V13" s="33"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="25"/>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="25"/>
-      <c r="AG13" s="25"/>
-      <c r="AH13" s="25"/>
-      <c r="AI13" s="25"/>
-      <c r="AJ13" s="25"/>
-      <c r="AK13" s="25"/>
-      <c r="AL13" s="25"/>
-      <c r="AM13" s="25"/>
-      <c r="AN13" s="25"/>
-      <c r="AO13" s="33"/>
-      <c r="AP13" s="39"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="15"/>
+      <c r="AP13" s="17"/>
     </row>
-    <row r="14" spans="2:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>6</v>
-      </c>
-      <c r="F14" s="1">
-        <v>424</v>
-      </c>
-      <c r="G14" s="2">
-        <v>368</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13">
+        <v>2</v>
+      </c>
+      <c r="E14" s="13">
+        <v>2</v>
+      </c>
+      <c r="F14" s="13">
+        <v>141</v>
+      </c>
+      <c r="G14" s="13">
+        <v>251</v>
+      </c>
+      <c r="H14" s="13">
         <v>10</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="13">
         <v>8.51</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="13">
         <v>1.25</v>
       </c>
-      <c r="K14" s="2">
-        <v>32</v>
-      </c>
-      <c r="L14" s="2">
-        <v>47</v>
-      </c>
-      <c r="M14" s="2">
-        <v>32</v>
-      </c>
-      <c r="N14" s="5">
-        <v>47</v>
+      <c r="K14" s="13">
+        <v>56</v>
+      </c>
+      <c r="L14" s="13">
+        <v>56</v>
+      </c>
+      <c r="M14" s="13">
+        <v>56</v>
+      </c>
+      <c r="N14" s="13">
+        <v>56</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P14" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Q14" s="5">
-        <v>45</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
+      </c>
+      <c r="R14" s="2">
+        <v>2</v>
       </c>
       <c r="S14" s="5" t="s">
         <v>43</v>
@@ -12110,103 +12120,85 @@
         <v>43</v>
       </c>
       <c r="U14" s="2">
-        <v>6</v>
-      </c>
-      <c r="X14" s="4">
-        <v>38</v>
-      </c>
-      <c r="Y14" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>39</v>
-      </c>
-      <c r="AA14" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB14" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC14" s="2">
-        <v>39</v>
-      </c>
-      <c r="AF14" s="4">
-        <v>114</v>
-      </c>
-      <c r="AG14" s="2">
-        <v>384</v>
-      </c>
-      <c r="AH14" s="1">
-        <v>278</v>
-      </c>
-      <c r="AI14" s="2">
+        <v>5</v>
+      </c>
+      <c r="V14" s="15"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="13">
+        <v>56</v>
+      </c>
+      <c r="Y14" s="13">
+        <v>56</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>57</v>
+      </c>
+      <c r="AA14" s="13">
+        <v>56</v>
+      </c>
+      <c r="AB14" s="13">
+        <v>56</v>
+      </c>
+      <c r="AC14" s="13">
+        <v>57</v>
+      </c>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="13">
+        <v>29</v>
+      </c>
+      <c r="AG14" s="13">
+        <v>97</v>
+      </c>
+      <c r="AH14" s="13">
+        <v>72</v>
+      </c>
+      <c r="AI14" s="13">
         <v>2</v>
       </c>
-      <c r="AJ14" s="1">
+      <c r="AJ14" s="13">
+        <v>2</v>
+      </c>
+      <c r="AK14" s="13">
         <v>0</v>
       </c>
-      <c r="AK14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="4">
+      <c r="AL14" s="13">
         <v>10</v>
       </c>
-      <c r="AM14" s="4">
-        <v>6.6630000000000003</v>
-      </c>
-      <c r="AN14" s="4">
-        <v>7.3849999999999998</v>
-      </c>
-      <c r="AO14" s="4"/>
+      <c r="AM14" s="13">
+        <v>5.7450000000000001</v>
+      </c>
+      <c r="AN14" s="13">
+        <v>5.6920000000000002</v>
+      </c>
+      <c r="AO14" s="15"/>
+      <c r="AP14" s="17"/>
     </row>
-    <row r="15" spans="2:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>6</v>
-      </c>
-      <c r="F15" s="1">
-        <v>680</v>
-      </c>
-      <c r="G15" s="2">
-        <v>538</v>
-      </c>
-      <c r="H15" s="1">
-        <v>10</v>
-      </c>
-      <c r="I15" s="2">
-        <v>8.51</v>
-      </c>
-      <c r="J15" s="5">
-        <v>1.25</v>
-      </c>
-      <c r="K15" s="2">
-        <v>32</v>
-      </c>
-      <c r="L15" s="2">
-        <v>47</v>
-      </c>
-      <c r="M15" s="2">
-        <v>32</v>
-      </c>
-      <c r="N15" s="5">
-        <v>47</v>
-      </c>
+    <row r="15" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
       <c r="O15" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P15" s="2">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="Q15" s="5">
-        <v>45</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
+      </c>
+      <c r="R15" s="2">
+        <v>4</v>
       </c>
       <c r="S15" s="5" t="s">
         <v>43</v>
@@ -12215,104 +12207,79 @@
         <v>43</v>
       </c>
       <c r="U15" s="2">
-        <v>6</v>
-      </c>
-      <c r="X15" s="4">
-        <v>38</v>
-      </c>
-      <c r="Y15" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z15" s="1">
-        <v>39</v>
-      </c>
-      <c r="AA15" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB15" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC15" s="2">
-        <v>39</v>
-      </c>
-      <c r="AF15" s="4">
-        <v>212</v>
-      </c>
-      <c r="AG15" s="2">
-        <v>440</v>
-      </c>
-      <c r="AH15" s="1">
-        <v>564</v>
-      </c>
-      <c r="AI15" s="2">
-        <v>4</v>
-      </c>
-      <c r="AJ15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="4">
-        <v>10</v>
-      </c>
-      <c r="AM15" s="4">
-        <v>5.7450000000000001</v>
-      </c>
-      <c r="AN15" s="4">
-        <v>5.76</v>
-      </c>
-      <c r="AO15" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="V15" s="15"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="15"/>
+      <c r="AP15" s="17"/>
     </row>
     <row r="16" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25">
+      <c r="B16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13">
+        <v>0</v>
+      </c>
+      <c r="E16" s="13">
         <v>2</v>
       </c>
-      <c r="E16" s="25">
-        <v>2</v>
-      </c>
-      <c r="F16" s="25">
-        <v>221</v>
-      </c>
-      <c r="G16" s="25">
-        <v>318</v>
-      </c>
-      <c r="H16" s="25">
+      <c r="F16" s="13">
+        <v>912</v>
+      </c>
+      <c r="G16" s="13">
+        <v>289</v>
+      </c>
+      <c r="H16" s="13">
         <v>10</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16" s="13">
         <v>8.51</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="13">
         <v>1.25</v>
       </c>
-      <c r="K16" s="25">
-        <v>58</v>
-      </c>
-      <c r="L16" s="25">
-        <v>58</v>
-      </c>
-      <c r="M16" s="25">
-        <v>58</v>
-      </c>
-      <c r="N16" s="25">
-        <v>58</v>
+      <c r="K16" s="13">
+        <v>61</v>
+      </c>
+      <c r="L16" s="13">
+        <v>66</v>
+      </c>
+      <c r="M16" s="13">
+        <v>61</v>
+      </c>
+      <c r="N16" s="13">
+        <v>66</v>
       </c>
       <c r="O16" s="5" t="s">
         <v>55</v>
       </c>
       <c r="P16" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q16" s="5">
-        <v>12</v>
-      </c>
-      <c r="R16" s="2">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="S16" s="5" t="s">
         <v>43</v>
@@ -12321,74 +12288,74 @@
         <v>43</v>
       </c>
       <c r="U16" s="2">
-        <v>3</v>
-      </c>
-      <c r="V16" s="33"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="25">
-        <v>58</v>
-      </c>
-      <c r="Y16" s="25">
-        <v>58</v>
-      </c>
-      <c r="Z16" s="25">
-        <v>59</v>
-      </c>
-      <c r="AA16" s="25">
-        <v>58</v>
-      </c>
-      <c r="AB16" s="25">
-        <v>58</v>
-      </c>
-      <c r="AC16" s="25">
-        <v>59</v>
-      </c>
-      <c r="AD16" s="33"/>
-      <c r="AE16" s="34"/>
-      <c r="AF16" s="25">
-        <v>46</v>
-      </c>
-      <c r="AG16" s="25">
-        <v>160</v>
-      </c>
-      <c r="AH16" s="25">
-        <v>147</v>
-      </c>
-      <c r="AI16" s="25">
+        <v>5</v>
+      </c>
+      <c r="V16" s="15"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="13">
+        <v>65</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>65</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>66</v>
+      </c>
+      <c r="AA16" s="13">
+        <v>65</v>
+      </c>
+      <c r="AB16" s="13">
+        <v>65</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>66</v>
+      </c>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="13">
+        <v>294</v>
+      </c>
+      <c r="AG16" s="13">
+        <v>413</v>
+      </c>
+      <c r="AH16" s="13">
+        <v>843</v>
+      </c>
+      <c r="AI16" s="13">
         <v>2</v>
       </c>
-      <c r="AJ16" s="25">
-        <v>2</v>
-      </c>
-      <c r="AK16" s="25">
+      <c r="AJ16" s="13">
         <v>0</v>
       </c>
-      <c r="AL16" s="25">
+      <c r="AK16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="13">
         <v>10</v>
       </c>
-      <c r="AM16" s="25">
+      <c r="AM16" s="13">
         <v>5.7450000000000001</v>
       </c>
-      <c r="AN16" s="25">
-        <v>5.6920000000000002</v>
-      </c>
-      <c r="AO16" s="33"/>
-      <c r="AP16" s="39"/>
+      <c r="AN16" s="13">
+        <v>6.1879999999999997</v>
+      </c>
+      <c r="AO16" s="15"/>
+      <c r="AP16" s="17"/>
     </row>
     <row r="17" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
       <c r="O17" s="5" t="s">
         <v>56</v>
       </c>
@@ -12410,76 +12377,77 @@
       <c r="U17" s="2">
         <v>11</v>
       </c>
-      <c r="V17" s="33"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="25"/>
-      <c r="AD17" s="33"/>
-      <c r="AE17" s="34"/>
-      <c r="AF17" s="25"/>
-      <c r="AG17" s="25"/>
-      <c r="AH17" s="25"/>
-      <c r="AI17" s="25"/>
-      <c r="AJ17" s="25"/>
-      <c r="AK17" s="25"/>
-      <c r="AL17" s="25"/>
-      <c r="AM17" s="25"/>
-      <c r="AN17" s="25"/>
-      <c r="AO17" s="33"/>
-      <c r="AP17" s="39"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="13"/>
+      <c r="AL17" s="13"/>
+      <c r="AM17" s="13"/>
+      <c r="AN17" s="13"/>
+      <c r="AO17" s="15"/>
+      <c r="AP17" s="17"/>
     </row>
-    <row r="18" spans="2:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
+    <row r="18" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13">
+        <v>2</v>
+      </c>
+      <c r="E18" s="13">
+        <v>2</v>
+      </c>
+      <c r="F18" s="13">
+        <v>221</v>
+      </c>
+      <c r="G18" s="13">
+        <v>318</v>
+      </c>
+      <c r="H18" s="13">
         <v>10</v>
       </c>
-      <c r="F18" s="1">
-        <v>665</v>
-      </c>
-      <c r="G18" s="2">
-        <v>629</v>
-      </c>
-      <c r="H18" s="1">
-        <v>10</v>
-      </c>
-      <c r="I18" s="2">
+      <c r="I18" s="13">
         <v>8.51</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="13">
         <v>1.25</v>
       </c>
-      <c r="K18" s="2">
-        <v>29</v>
-      </c>
-      <c r="L18" s="2">
-        <v>50</v>
-      </c>
-      <c r="M18" s="2">
-        <v>29</v>
-      </c>
-      <c r="N18" s="5">
-        <v>50</v>
+      <c r="K18" s="13">
+        <v>58</v>
+      </c>
+      <c r="L18" s="13">
+        <v>58</v>
+      </c>
+      <c r="M18" s="13">
+        <v>58</v>
+      </c>
+      <c r="N18" s="13">
+        <v>58</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P18" s="2">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="Q18" s="5">
-        <v>48</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>60</v>
+        <v>12</v>
+      </c>
+      <c r="R18" s="2">
+        <v>4</v>
       </c>
       <c r="S18" s="5" t="s">
         <v>43</v>
@@ -12490,101 +12458,83 @@
       <c r="U18" s="2">
         <v>3</v>
       </c>
-      <c r="X18" s="4">
-        <v>35</v>
-      </c>
-      <c r="Y18" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>36</v>
-      </c>
-      <c r="AA18" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB18" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC18" s="2">
-        <v>36</v>
-      </c>
-      <c r="AF18" s="4">
-        <v>159</v>
-      </c>
-      <c r="AG18" s="2">
-        <v>533</v>
-      </c>
-      <c r="AH18" s="1">
-        <v>449</v>
-      </c>
-      <c r="AI18" s="2">
+      <c r="V18" s="15"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="13">
+        <v>58</v>
+      </c>
+      <c r="Y18" s="13">
+        <v>58</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>59</v>
+      </c>
+      <c r="AA18" s="13">
+        <v>58</v>
+      </c>
+      <c r="AB18" s="13">
+        <v>58</v>
+      </c>
+      <c r="AC18" s="13">
+        <v>59</v>
+      </c>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="13">
+        <v>46</v>
+      </c>
+      <c r="AG18" s="13">
+        <v>160</v>
+      </c>
+      <c r="AH18" s="13">
+        <v>147</v>
+      </c>
+      <c r="AI18" s="13">
         <v>2</v>
       </c>
-      <c r="AJ18" s="1">
+      <c r="AJ18" s="13">
+        <v>2</v>
+      </c>
+      <c r="AK18" s="13">
         <v>0</v>
       </c>
-      <c r="AK18" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="4">
+      <c r="AL18" s="13">
         <v>10</v>
       </c>
-      <c r="AM18" s="4">
-        <v>7.0650000000000004</v>
-      </c>
-      <c r="AN18" s="4">
-        <v>7.7279999999999998</v>
-      </c>
-      <c r="AO18" s="4"/>
+      <c r="AM18" s="13">
+        <v>5.7450000000000001</v>
+      </c>
+      <c r="AN18" s="13">
+        <v>5.6920000000000002</v>
+      </c>
+      <c r="AO18" s="15"/>
+      <c r="AP18" s="17"/>
     </row>
-    <row r="19" spans="2:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>10</v>
-      </c>
-      <c r="F19" s="1">
-        <v>952</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1006</v>
-      </c>
-      <c r="H19" s="1">
-        <v>10</v>
-      </c>
-      <c r="I19" s="2">
-        <v>8.51</v>
-      </c>
-      <c r="J19" s="5">
-        <v>1.25</v>
-      </c>
-      <c r="K19" s="2">
-        <v>29</v>
-      </c>
-      <c r="L19" s="2">
-        <v>50</v>
-      </c>
-      <c r="M19" s="2">
-        <v>29</v>
-      </c>
-      <c r="N19" s="5">
-        <v>50</v>
-      </c>
+    <row r="19" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
       <c r="O19" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P19" s="2">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="Q19" s="5">
-        <v>48</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
+      </c>
+      <c r="R19" s="2">
+        <v>4</v>
       </c>
       <c r="S19" s="5" t="s">
         <v>43</v>
@@ -12593,103 +12543,79 @@
         <v>43</v>
       </c>
       <c r="U19" s="2">
-        <v>3</v>
-      </c>
-      <c r="X19" s="4">
-        <v>35</v>
-      </c>
-      <c r="Y19" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>36</v>
-      </c>
-      <c r="AA19" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB19" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC19" s="2">
-        <v>36</v>
-      </c>
-      <c r="AF19" s="4">
-        <v>318</v>
-      </c>
-      <c r="AG19" s="2">
-        <v>1016</v>
-      </c>
-      <c r="AH19" s="1">
-        <v>714</v>
-      </c>
-      <c r="AI19" s="2">
-        <v>8</v>
-      </c>
-      <c r="AJ19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="4">
+        <v>11</v>
+      </c>
+      <c r="V19" s="15"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="13"/>
+      <c r="AL19" s="13"/>
+      <c r="AM19" s="13"/>
+      <c r="AN19" s="13"/>
+      <c r="AO19" s="15"/>
+      <c r="AP19" s="17"/>
+    </row>
+    <row r="20" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13">
+        <v>2</v>
+      </c>
+      <c r="E20" s="13">
+        <v>2</v>
+      </c>
+      <c r="F20" s="13">
+        <v>194</v>
+      </c>
+      <c r="G20" s="13">
+        <v>367</v>
+      </c>
+      <c r="H20" s="13">
         <v>10</v>
       </c>
-      <c r="AM19" s="4">
-        <v>5.7450000000000001</v>
-      </c>
-      <c r="AN19" s="4">
-        <v>6.6340000000000003</v>
-      </c>
-      <c r="AO19" s="4"/>
-    </row>
-    <row r="20" spans="2:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>4</v>
-      </c>
-      <c r="F20" s="1">
-        <v>287</v>
-      </c>
-      <c r="G20" s="2">
-        <v>233</v>
-      </c>
-      <c r="H20" s="1">
-        <v>10</v>
-      </c>
-      <c r="I20" s="2">
+      <c r="I20" s="13">
         <v>8.51</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="13">
         <v>1.25</v>
       </c>
-      <c r="K20" s="2">
-        <v>23</v>
-      </c>
-      <c r="L20" s="2">
-        <v>45</v>
-      </c>
-      <c r="M20" s="2">
-        <v>23</v>
-      </c>
-      <c r="N20" s="5">
-        <v>45</v>
+      <c r="K20" s="13">
+        <v>62</v>
+      </c>
+      <c r="L20" s="13">
+        <v>66</v>
+      </c>
+      <c r="M20" s="13">
+        <v>62</v>
+      </c>
+      <c r="N20" s="13">
+        <v>66</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P20" s="2">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q20" s="5">
-        <v>44</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
+      </c>
+      <c r="R20" s="2">
+        <v>5</v>
       </c>
       <c r="S20" s="5" t="s">
         <v>43</v>
@@ -12698,103 +12624,85 @@
         <v>43</v>
       </c>
       <c r="U20" s="2">
-        <v>11</v>
-      </c>
-      <c r="X20" s="4">
-        <v>43</v>
-      </c>
-      <c r="Y20" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z20" s="1">
+        <v>3</v>
+      </c>
+      <c r="V20" s="15"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="13">
+        <v>60</v>
+      </c>
+      <c r="Y20" s="13">
+        <v>60</v>
+      </c>
+      <c r="Z20" s="13">
+        <v>61</v>
+      </c>
+      <c r="AA20" s="13">
+        <v>60</v>
+      </c>
+      <c r="AB20" s="13">
+        <v>60</v>
+      </c>
+      <c r="AC20" s="13">
+        <v>61</v>
+      </c>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="13">
+        <v>40</v>
+      </c>
+      <c r="AG20" s="13">
+        <v>145</v>
+      </c>
+      <c r="AH20" s="13">
+        <v>93</v>
+      </c>
+      <c r="AI20" s="13">
+        <v>2</v>
+      </c>
+      <c r="AJ20" s="13">
+        <v>2</v>
+      </c>
+      <c r="AK20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="13">
+        <v>10</v>
+      </c>
+      <c r="AM20" s="13">
+        <v>5.7450000000000001</v>
+      </c>
+      <c r="AN20" s="13">
+        <v>5.6920000000000002</v>
+      </c>
+      <c r="AO20" s="15"/>
+      <c r="AP20" s="17"/>
+    </row>
+    <row r="21" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="16"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P21" s="2">
         <v>44</v>
       </c>
-      <c r="AA20" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB20" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC20" s="2">
+      <c r="Q21" s="5">
         <v>44</v>
       </c>
-      <c r="AF20" s="4">
-        <v>81</v>
-      </c>
-      <c r="AG20" s="2">
-        <v>275</v>
-      </c>
-      <c r="AH20" s="1">
-        <v>160</v>
-      </c>
-      <c r="AI20" s="2">
-        <v>2</v>
-      </c>
-      <c r="AJ20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="4">
-        <v>10</v>
-      </c>
-      <c r="AM20" s="4">
-        <v>5.7450000000000001</v>
-      </c>
-      <c r="AN20" s="4">
-        <v>6.41</v>
-      </c>
-      <c r="AO20" s="4"/>
-    </row>
-    <row r="21" spans="2:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="R21" s="2">
         <v>4</v>
-      </c>
-      <c r="F21" s="1">
-        <v>619</v>
-      </c>
-      <c r="G21" s="2">
-        <v>301</v>
-      </c>
-      <c r="H21" s="1">
-        <v>9</v>
-      </c>
-      <c r="I21" s="2">
-        <v>6.9119999999999999</v>
-      </c>
-      <c r="J21" s="5">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="K21" s="2">
-        <v>24</v>
-      </c>
-      <c r="L21" s="2">
-        <v>57</v>
-      </c>
-      <c r="M21" s="2">
-        <v>24</v>
-      </c>
-      <c r="N21" s="5">
-        <v>57</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P21" s="2">
-        <v>22</v>
-      </c>
-      <c r="Q21" s="5">
-        <v>55</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="S21" s="5" t="s">
         <v>43</v>
@@ -12805,101 +12713,77 @@
       <c r="U21" s="2">
         <v>11</v>
       </c>
-      <c r="X21" s="4">
-        <v>54</v>
-      </c>
-      <c r="Y21" s="2">
-        <v>54</v>
-      </c>
-      <c r="Z21" s="1">
+      <c r="V21" s="15"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="13"/>
+      <c r="AM21" s="13"/>
+      <c r="AN21" s="13"/>
+      <c r="AO21" s="15"/>
+      <c r="AP21" s="17"/>
+    </row>
+    <row r="22" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13">
+        <v>0</v>
+      </c>
+      <c r="E22" s="13">
+        <v>2</v>
+      </c>
+      <c r="F22" s="13">
+        <v>928</v>
+      </c>
+      <c r="G22" s="13">
+        <v>748</v>
+      </c>
+      <c r="H22" s="13">
+        <v>10</v>
+      </c>
+      <c r="I22" s="13">
+        <v>8.51</v>
+      </c>
+      <c r="J22" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="K22" s="13">
+        <v>62</v>
+      </c>
+      <c r="L22" s="13">
+        <v>64</v>
+      </c>
+      <c r="M22" s="13">
+        <v>62</v>
+      </c>
+      <c r="N22" s="13">
+        <v>64</v>
+      </c>
+      <c r="O22" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AA21" s="2">
-        <v>54</v>
-      </c>
-      <c r="AB21" s="2">
-        <v>54</v>
-      </c>
-      <c r="AC21" s="2">
-        <v>55</v>
-      </c>
-      <c r="AF21" s="4">
-        <v>88</v>
-      </c>
-      <c r="AG21" s="2">
-        <v>276</v>
-      </c>
-      <c r="AH21" s="1">
-        <v>226</v>
-      </c>
-      <c r="AI21" s="2">
-        <v>2</v>
-      </c>
-      <c r="AJ21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="4">
-        <v>9</v>
-      </c>
-      <c r="AM21" s="4">
-        <v>5.7450000000000001</v>
-      </c>
-      <c r="AN21" s="4">
-        <v>6.0590000000000002</v>
-      </c>
-      <c r="AO21" s="4"/>
-    </row>
-    <row r="22" spans="2:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>4</v>
-      </c>
-      <c r="F22" s="1">
-        <v>619</v>
-      </c>
-      <c r="G22" s="2">
-        <v>301</v>
-      </c>
-      <c r="H22" s="1">
-        <v>8</v>
-      </c>
-      <c r="I22" s="2">
-        <v>6.9119999999999999</v>
-      </c>
-      <c r="J22" s="5">
-        <v>1</v>
-      </c>
-      <c r="K22" s="2">
-        <v>24</v>
-      </c>
-      <c r="L22" s="2">
-        <v>57</v>
-      </c>
-      <c r="M22" s="2">
-        <v>24</v>
-      </c>
-      <c r="N22" s="5">
-        <v>57</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="P22" s="2">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q22" s="5">
-        <v>55</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>61</v>
+        <v>17</v>
+      </c>
+      <c r="R22" s="2">
+        <v>5</v>
       </c>
       <c r="S22" s="5" t="s">
         <v>43</v>
@@ -12908,103 +12792,85 @@
         <v>43</v>
       </c>
       <c r="U22" s="2">
-        <v>11</v>
-      </c>
-      <c r="X22" s="4">
-        <v>54</v>
-      </c>
-      <c r="Y22" s="2">
-        <v>54</v>
-      </c>
-      <c r="Z22" s="1">
-        <v>55</v>
-      </c>
-      <c r="AA22" s="2">
-        <v>54</v>
-      </c>
-      <c r="AB22" s="2">
-        <v>54</v>
-      </c>
-      <c r="AC22" s="2">
-        <v>55</v>
-      </c>
-      <c r="AF22" s="4">
-        <v>89</v>
-      </c>
-      <c r="AG22" s="2">
-        <v>276</v>
-      </c>
-      <c r="AH22" s="1">
-        <v>226</v>
-      </c>
-      <c r="AI22" s="2">
+        <v>3</v>
+      </c>
+      <c r="V22" s="15"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="13">
+        <v>58</v>
+      </c>
+      <c r="Y22" s="13">
+        <v>58</v>
+      </c>
+      <c r="Z22" s="13">
+        <v>59</v>
+      </c>
+      <c r="AA22" s="13">
+        <v>58</v>
+      </c>
+      <c r="AB22" s="13">
+        <v>58</v>
+      </c>
+      <c r="AC22" s="13">
+        <v>59</v>
+      </c>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="13">
+        <v>412</v>
+      </c>
+      <c r="AG22" s="13">
+        <v>1145</v>
+      </c>
+      <c r="AH22" s="13">
+        <v>864</v>
+      </c>
+      <c r="AI22" s="13">
         <v>2</v>
       </c>
-      <c r="AJ22" s="1">
+      <c r="AJ22" s="13">
         <v>0</v>
       </c>
-      <c r="AK22" s="4">
+      <c r="AK22" s="13">
         <v>0</v>
       </c>
-      <c r="AL22" s="4">
-        <v>8</v>
-      </c>
-      <c r="AM22" s="4">
+      <c r="AL22" s="13">
+        <v>10</v>
+      </c>
+      <c r="AM22" s="13">
         <v>5.7450000000000001</v>
       </c>
-      <c r="AN22" s="4">
-        <v>6.0339999999999998</v>
-      </c>
-      <c r="AO22" s="4"/>
+      <c r="AN22" s="13">
+        <v>7.109</v>
+      </c>
+      <c r="AO22" s="15"/>
+      <c r="AP22" s="17"/>
     </row>
-    <row r="23" spans="2:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
+    <row r="23" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="16"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P23" s="2">
+        <v>44</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>44</v>
+      </c>
+      <c r="R23" s="2">
         <v>4</v>
-      </c>
-      <c r="F23" s="1">
-        <v>623</v>
-      </c>
-      <c r="G23" s="2">
-        <v>305</v>
-      </c>
-      <c r="H23" s="1">
-        <v>7</v>
-      </c>
-      <c r="I23" s="2">
-        <v>5.7450000000000001</v>
-      </c>
-      <c r="J23" s="5">
-        <v>0.88</v>
-      </c>
-      <c r="K23" s="2">
-        <v>25</v>
-      </c>
-      <c r="L23" s="2">
-        <v>69</v>
-      </c>
-      <c r="M23" s="2">
-        <v>25</v>
-      </c>
-      <c r="N23" s="5">
-        <v>69</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P23" s="2">
-        <v>22</v>
-      </c>
-      <c r="Q23" s="5">
-        <v>66</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="S23" s="5" t="s">
         <v>43</v>
@@ -13015,56 +12881,31 @@
       <c r="U23" s="2">
         <v>11</v>
       </c>
-      <c r="X23" s="4">
-        <v>65</v>
-      </c>
-      <c r="Y23" s="2">
-        <v>65</v>
-      </c>
-      <c r="Z23" s="1">
-        <v>66</v>
-      </c>
-      <c r="AA23" s="2">
-        <v>65</v>
-      </c>
-      <c r="AB23" s="2">
-        <v>65</v>
-      </c>
-      <c r="AC23" s="2">
-        <v>66</v>
-      </c>
-      <c r="AF23" s="4">
-        <v>75</v>
-      </c>
-      <c r="AG23" s="2">
-        <v>186</v>
-      </c>
-      <c r="AH23" s="1">
-        <v>222</v>
-      </c>
-      <c r="AI23" s="2">
-        <v>4</v>
-      </c>
-      <c r="AJ23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="4">
-        <v>7</v>
-      </c>
-      <c r="AM23" s="4">
-        <v>5.7450000000000001</v>
-      </c>
-      <c r="AN23" s="4">
-        <v>5.6920000000000002</v>
-      </c>
-      <c r="AO23" s="4"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="13"/>
+      <c r="AK23" s="13"/>
+      <c r="AL23" s="13"/>
+      <c r="AM23" s="13"/>
+      <c r="AN23" s="13"/>
+      <c r="AO23" s="15"/>
+      <c r="AP23" s="17"/>
     </row>
     <row r="24" spans="2:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
@@ -13073,31 +12914,31 @@
         <v>4</v>
       </c>
       <c r="F24" s="1">
-        <v>725</v>
+        <v>287</v>
       </c>
       <c r="G24" s="2">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="H24" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I24" s="2">
-        <v>4.6440000000000001</v>
+        <v>8.51</v>
       </c>
       <c r="J24" s="5">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="K24" s="2">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L24" s="2">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="M24" s="2">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N24" s="5">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="O24" s="5" t="s">
         <v>57</v>
@@ -13106,10 +12947,10 @@
         <v>22</v>
       </c>
       <c r="Q24" s="5">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="S24" s="5" t="s">
         <v>43</v>
@@ -13121,34 +12962,34 @@
         <v>11</v>
       </c>
       <c r="X24" s="4">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="Y24" s="2">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="Z24" s="1">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="AA24" s="2">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="AB24" s="2">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="AC24" s="2">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="AF24" s="4">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AG24" s="2">
-        <v>186</v>
+        <v>275</v>
       </c>
       <c r="AH24" s="1">
-        <v>241</v>
+        <v>160</v>
       </c>
       <c r="AI24" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ24" s="1">
         <v>0</v>
@@ -13157,19 +12998,19 @@
         <v>0</v>
       </c>
       <c r="AL24" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AM24" s="4">
-        <v>4.8230000000000004</v>
+        <v>5.7450000000000001</v>
       </c>
       <c r="AN24" s="4">
-        <v>4.3639999999999999</v>
+        <v>6.41</v>
       </c>
       <c r="AO24" s="4"/>
     </row>
     <row r="25" spans="2:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
@@ -13178,31 +13019,31 @@
         <v>4</v>
       </c>
       <c r="F25" s="1">
-        <v>725</v>
+        <v>619</v>
       </c>
       <c r="G25" s="2">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="H25" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I25" s="2">
-        <v>4.3209999999999997</v>
+        <v>6.9119999999999999</v>
       </c>
       <c r="J25" s="5">
-        <v>0.62</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K25" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L25" s="2">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="M25" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N25" s="5">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="O25" s="5" t="s">
         <v>57</v>
@@ -13211,10 +13052,10 @@
         <v>22</v>
       </c>
       <c r="Q25" s="5">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="S25" s="5" t="s">
         <v>43</v>
@@ -13226,34 +13067,34 @@
         <v>11</v>
       </c>
       <c r="X25" s="4">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="Y25" s="2">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="Z25" s="1">
+        <v>55</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>54</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>54</v>
+      </c>
+      <c r="AC25" s="2">
+        <v>55</v>
+      </c>
+      <c r="AF25" s="4">
         <v>88</v>
       </c>
-      <c r="AA25" s="2">
-        <v>87</v>
-      </c>
-      <c r="AB25" s="2">
-        <v>87</v>
-      </c>
-      <c r="AC25" s="2">
-        <v>88</v>
-      </c>
-      <c r="AF25" s="4">
-        <v>96</v>
-      </c>
       <c r="AG25" s="2">
-        <v>186</v>
+        <v>276</v>
       </c>
       <c r="AH25" s="1">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="AI25" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ25" s="1">
         <v>0</v>
@@ -13262,19 +13103,19 @@
         <v>0</v>
       </c>
       <c r="AL25" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AM25" s="4">
-        <v>4.8230000000000004</v>
+        <v>5.7450000000000001</v>
       </c>
       <c r="AN25" s="4">
-        <v>4.282</v>
+        <v>6.0590000000000002</v>
       </c>
       <c r="AO25" s="4"/>
     </row>
     <row r="26" spans="2:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
@@ -13283,43 +13124,43 @@
         <v>4</v>
       </c>
       <c r="F26" s="1">
-        <v>832</v>
+        <v>619</v>
       </c>
       <c r="G26" s="2">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="H26" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I26" s="2">
-        <v>3.254</v>
+        <v>6.9119999999999999</v>
       </c>
       <c r="J26" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K26" s="2">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="L26" s="2">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="M26" s="2">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N26" s="5">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="O26" s="5" t="s">
         <v>57</v>
       </c>
       <c r="P26" s="2">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="Q26" s="5">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="S26" s="5" t="s">
         <v>43</v>
@@ -13331,34 +13172,34 @@
         <v>11</v>
       </c>
       <c r="X26" s="4">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="Y26" s="2">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="Z26" s="1">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="AA26" s="2">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="AB26" s="2">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="AC26" s="2">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="AF26" s="4">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="AG26" s="2">
-        <v>188</v>
+        <v>276</v>
       </c>
       <c r="AH26" s="1">
-        <v>376</v>
+        <v>226</v>
       </c>
       <c r="AI26" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ26" s="1">
         <v>0</v>
@@ -13367,19 +13208,19 @@
         <v>0</v>
       </c>
       <c r="AL26" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AM26" s="4">
-        <v>3.6669999999999998</v>
+        <v>5.7450000000000001</v>
       </c>
       <c r="AN26" s="4">
-        <v>3.7240000000000002</v>
+        <v>6.0339999999999998</v>
       </c>
       <c r="AO26" s="4"/>
     </row>
-    <row r="27" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>21</v>
+    <row r="27" spans="2:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D27" s="4">
         <v>0</v>
@@ -13388,82 +13229,82 @@
         <v>4</v>
       </c>
       <c r="F27" s="1">
-        <v>710</v>
+        <v>623</v>
       </c>
       <c r="G27" s="2">
-        <v>621</v>
+        <v>305</v>
       </c>
       <c r="H27" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I27" s="2">
-        <v>8.51</v>
+        <v>5.7450000000000001</v>
       </c>
       <c r="J27" s="5">
-        <v>1.25</v>
+        <v>0.88</v>
       </c>
       <c r="K27" s="2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L27" s="2">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="M27" s="2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N27" s="5">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="O27" s="5" t="s">
         <v>57</v>
       </c>
       <c r="P27" s="2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Q27" s="5">
-        <v>13</v>
-      </c>
-      <c r="R27" s="2">
-        <v>4</v>
-      </c>
-      <c r="S27" s="5">
-        <v>1</v>
-      </c>
-      <c r="T27" s="2">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="U27" s="2">
         <v>11</v>
       </c>
       <c r="X27" s="4">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="Y27" s="2">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="Z27" s="1">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="AA27" s="2">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="AB27" s="2">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="AC27" s="2">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="AF27" s="4">
-        <v>204</v>
+        <v>75</v>
       </c>
       <c r="AG27" s="2">
-        <v>311</v>
+        <v>186</v>
       </c>
       <c r="AH27" s="1">
-        <v>455</v>
+        <v>222</v>
       </c>
       <c r="AI27" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ27" s="1">
         <v>0</v>
@@ -13472,213 +13313,208 @@
         <v>0</v>
       </c>
       <c r="AL27" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AM27" s="4">
         <v>5.7450000000000001</v>
       </c>
       <c r="AN27" s="4">
-        <v>6.5119999999999996</v>
+        <v>5.6920000000000002</v>
       </c>
       <c r="AO27" s="4"/>
     </row>
-    <row r="28" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="4"/>
+    <row r="28" spans="2:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D28" s="4">
         <v>0</v>
       </c>
-      <c r="E28" s="4">
-        <v>2</v>
-      </c>
-      <c r="F28" s="4">
-        <v>81</v>
-      </c>
-      <c r="G28" s="4">
-        <v>107</v>
-      </c>
-      <c r="H28" s="4">
-        <v>10</v>
-      </c>
-      <c r="I28" s="4">
-        <v>6.38</v>
-      </c>
-      <c r="J28" s="4">
-        <v>1.25</v>
-      </c>
-      <c r="K28" s="4">
-        <v>31</v>
-      </c>
-      <c r="L28" s="4">
-        <v>31</v>
-      </c>
-      <c r="M28" s="4">
-        <v>31</v>
-      </c>
-      <c r="N28" s="4">
-        <v>31</v>
-      </c>
-      <c r="O28" s="4" t="s">
+      <c r="E28" s="2">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1">
+        <v>725</v>
+      </c>
+      <c r="G28" s="2">
+        <v>221</v>
+      </c>
+      <c r="H28" s="1">
+        <v>6</v>
+      </c>
+      <c r="I28" s="2">
+        <v>4.6440000000000001</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="K28" s="2">
+        <v>27</v>
+      </c>
+      <c r="L28" s="2">
+        <v>93</v>
+      </c>
+      <c r="M28" s="2">
+        <v>27</v>
+      </c>
+      <c r="N28" s="5">
+        <v>93</v>
+      </c>
+      <c r="O28" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="P28" s="4">
-        <v>30</v>
-      </c>
-      <c r="Q28" s="4">
-        <v>30</v>
-      </c>
-      <c r="R28" s="4">
-        <v>3</v>
-      </c>
-      <c r="S28" s="4" t="s">
+      <c r="P28" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>88</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S28" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="T28" s="4" t="s">
+      <c r="T28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U28" s="4">
-        <v>10</v>
-      </c>
-      <c r="V28" s="4"/>
+      <c r="U28" s="2">
+        <v>11</v>
+      </c>
       <c r="X28" s="4">
-        <v>31</v>
-      </c>
-      <c r="Y28" s="4">
-        <v>31</v>
-      </c>
-      <c r="Z28" s="4">
-        <v>32</v>
-      </c>
-      <c r="AA28" s="4">
-        <v>31</v>
-      </c>
-      <c r="AB28" s="4">
-        <v>31</v>
-      </c>
-      <c r="AC28" s="4">
-        <v>32</v>
-      </c>
-      <c r="AD28" s="4"/>
-      <c r="AF28" s="2">
-        <v>15</v>
+        <v>87</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>87</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>88</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>87</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>88</v>
+      </c>
+      <c r="AF28" s="4">
+        <v>76</v>
       </c>
       <c r="AG28" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH28" s="2">
-        <v>24</v>
-      </c>
-      <c r="AI28" s="4">
-        <v>2</v>
-      </c>
-      <c r="AJ28" s="2">
+        <v>186</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>241</v>
+      </c>
+      <c r="AI28" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ28" s="1">
         <v>0</v>
       </c>
       <c r="AK28" s="4">
         <v>0</v>
       </c>
       <c r="AL28" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AM28" s="4">
-        <v>5.4290000000000003</v>
-      </c>
-      <c r="AN28" s="2">
-        <v>5.6920000000000002</v>
+        <v>4.8230000000000004</v>
+      </c>
+      <c r="AN28" s="4">
+        <v>4.3639999999999999</v>
       </c>
       <c r="AO28" s="4"/>
     </row>
     <row r="29" spans="2:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D29" s="4">
         <v>0</v>
       </c>
       <c r="E29" s="2">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F29" s="1">
-        <v>767</v>
+        <v>725</v>
       </c>
       <c r="G29" s="2">
-        <v>583</v>
+        <v>221</v>
       </c>
       <c r="H29" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I29" s="2">
-        <v>8.7420000000000009</v>
+        <v>4.3209999999999997</v>
       </c>
       <c r="J29" s="5">
-        <v>1.25</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>45</v>
+        <v>0.62</v>
+      </c>
+      <c r="K29" s="2">
+        <v>27</v>
+      </c>
+      <c r="L29" s="2">
+        <v>93</v>
+      </c>
+      <c r="M29" s="2">
+        <v>27</v>
+      </c>
+      <c r="N29" s="5">
+        <v>93</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q29" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="R29" s="2">
+        <v>57</v>
+      </c>
+      <c r="P29" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>88</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U29" s="2">
+        <v>11</v>
+      </c>
+      <c r="X29" s="4">
+        <v>87</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>87</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>88</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>87</v>
+      </c>
+      <c r="AC29" s="2">
+        <v>88</v>
+      </c>
+      <c r="AF29" s="4">
+        <v>96</v>
+      </c>
+      <c r="AG29" s="2">
+        <v>186</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>258</v>
+      </c>
+      <c r="AI29" s="2">
         <v>4</v>
-      </c>
-      <c r="S29" s="5">
-        <v>1</v>
-      </c>
-      <c r="T29" s="2">
-        <v>1</v>
-      </c>
-      <c r="U29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V29" s="4"/>
-      <c r="X29" s="4">
-        <v>13</v>
-      </c>
-      <c r="Y29" s="2">
-        <v>13</v>
-      </c>
-      <c r="Z29" s="1">
-        <v>13</v>
-      </c>
-      <c r="AA29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD29" s="4"/>
-      <c r="AF29" s="4">
-        <v>231</v>
-      </c>
-      <c r="AG29" s="2">
-        <v>739</v>
-      </c>
-      <c r="AH29" s="1">
-        <v>699</v>
-      </c>
-      <c r="AI29" s="2">
-        <v>0</v>
       </c>
       <c r="AJ29" s="1">
         <v>0</v>
@@ -13687,77 +13523,638 @@
         <v>0</v>
       </c>
       <c r="AL29" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AM29" s="4">
-        <v>7.2690000000000001</v>
+        <v>4.8230000000000004</v>
       </c>
       <c r="AN29" s="4">
-        <v>8.202</v>
+        <v>4.282</v>
       </c>
       <c r="AO29" s="4"/>
     </row>
+    <row r="30" spans="2:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>4</v>
+      </c>
+      <c r="F30" s="1">
+        <v>832</v>
+      </c>
+      <c r="G30" s="2">
+        <v>286</v>
+      </c>
+      <c r="H30" s="1">
+        <v>4</v>
+      </c>
+      <c r="I30" s="2">
+        <v>3.254</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="K30" s="2">
+        <v>40</v>
+      </c>
+      <c r="L30" s="2">
+        <v>139</v>
+      </c>
+      <c r="M30" s="2">
+        <v>40</v>
+      </c>
+      <c r="N30" s="5">
+        <v>139</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P30" s="2">
+        <v>33</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>132</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U30" s="2">
+        <v>11</v>
+      </c>
+      <c r="X30" s="4">
+        <v>130</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>130</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>131</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>130</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>130</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>131</v>
+      </c>
+      <c r="AF30" s="4">
+        <v>114</v>
+      </c>
+      <c r="AG30" s="2">
+        <v>188</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>376</v>
+      </c>
+      <c r="AI30" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="4">
+        <v>4</v>
+      </c>
+      <c r="AM30" s="4">
+        <v>3.6669999999999998</v>
+      </c>
+      <c r="AN30" s="4">
+        <v>3.7240000000000002</v>
+      </c>
+      <c r="AO30" s="4"/>
+    </row>
+    <row r="31" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1">
+        <v>710</v>
+      </c>
+      <c r="G31" s="2">
+        <v>621</v>
+      </c>
+      <c r="H31" s="1">
+        <v>10</v>
+      </c>
+      <c r="I31" s="2">
+        <v>8.51</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="K31" s="2">
+        <v>15</v>
+      </c>
+      <c r="L31" s="2">
+        <v>15</v>
+      </c>
+      <c r="M31" s="2">
+        <v>15</v>
+      </c>
+      <c r="N31" s="5">
+        <v>15</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P31" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>13</v>
+      </c>
+      <c r="R31" s="2">
+        <v>4</v>
+      </c>
+      <c r="S31" s="5">
+        <v>1</v>
+      </c>
+      <c r="T31" s="2">
+        <v>1</v>
+      </c>
+      <c r="U31" s="2">
+        <v>11</v>
+      </c>
+      <c r="X31" s="4">
+        <v>15</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>15</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>16</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>15</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>16</v>
+      </c>
+      <c r="AF31" s="4">
+        <v>204</v>
+      </c>
+      <c r="AG31" s="2">
+        <v>311</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>455</v>
+      </c>
+      <c r="AI31" s="2">
+        <v>2</v>
+      </c>
+      <c r="AJ31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="4">
+        <v>10</v>
+      </c>
+      <c r="AM31" s="4">
+        <v>5.7450000000000001</v>
+      </c>
+      <c r="AN31" s="4">
+        <v>6.5119999999999996</v>
+      </c>
+      <c r="AO31" s="4"/>
+    </row>
+    <row r="32" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2</v>
+      </c>
+      <c r="F32" s="4">
+        <v>81</v>
+      </c>
+      <c r="G32" s="4">
+        <v>107</v>
+      </c>
+      <c r="H32" s="4">
+        <v>10</v>
+      </c>
+      <c r="I32" s="4">
+        <v>6.38</v>
+      </c>
+      <c r="J32" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="K32" s="4">
+        <v>31</v>
+      </c>
+      <c r="L32" s="4">
+        <v>31</v>
+      </c>
+      <c r="M32" s="4">
+        <v>31</v>
+      </c>
+      <c r="N32" s="4">
+        <v>31</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P32" s="4">
+        <v>30</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>30</v>
+      </c>
+      <c r="R32" s="4">
+        <v>3</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U32" s="4">
+        <v>10</v>
+      </c>
+      <c r="V32" s="4"/>
+      <c r="X32" s="4">
+        <v>31</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>31</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>32</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>31</v>
+      </c>
+      <c r="AB32" s="4">
+        <v>31</v>
+      </c>
+      <c r="AC32" s="4">
+        <v>32</v>
+      </c>
+      <c r="AD32" s="4"/>
+      <c r="AF32" s="2">
+        <v>15</v>
+      </c>
+      <c r="AG32" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH32" s="2">
+        <v>24</v>
+      </c>
+      <c r="AI32" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="4">
+        <v>10</v>
+      </c>
+      <c r="AM32" s="4">
+        <v>5.4290000000000003</v>
+      </c>
+      <c r="AN32" s="2">
+        <v>5.6920000000000002</v>
+      </c>
+      <c r="AO32" s="4"/>
+    </row>
+    <row r="33" spans="2:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>14</v>
+      </c>
+      <c r="F33" s="1">
+        <v>767</v>
+      </c>
+      <c r="G33" s="2">
+        <v>583</v>
+      </c>
+      <c r="H33" s="1">
+        <v>10</v>
+      </c>
+      <c r="I33" s="2">
+        <v>8.7420000000000009</v>
+      </c>
+      <c r="J33" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R33" s="2">
+        <v>4</v>
+      </c>
+      <c r="S33" s="5">
+        <v>1</v>
+      </c>
+      <c r="T33" s="2">
+        <v>1</v>
+      </c>
+      <c r="U33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V33" s="4"/>
+      <c r="X33" s="4">
+        <v>13</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>13</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>13</v>
+      </c>
+      <c r="AA33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD33" s="4"/>
+      <c r="AF33" s="4">
+        <v>231</v>
+      </c>
+      <c r="AG33" s="2">
+        <v>739</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>699</v>
+      </c>
+      <c r="AI33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="4">
+        <v>10</v>
+      </c>
+      <c r="AM33" s="4">
+        <v>7.2690000000000001</v>
+      </c>
+      <c r="AN33" s="4">
+        <v>8.202</v>
+      </c>
+      <c r="AO33" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="142">
-    <mergeCell ref="E16:E17"/>
+  <mergeCells count="278">
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="Y22:Y23"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="AP22:AP23"/>
+    <mergeCell ref="AO22:AO23"/>
+    <mergeCell ref="AN22:AN23"/>
+    <mergeCell ref="AM22:AM23"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="AK22:AK23"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AI22:AI23"/>
+    <mergeCell ref="AH22:AH23"/>
+    <mergeCell ref="AG22:AG23"/>
+    <mergeCell ref="AF22:AF23"/>
+    <mergeCell ref="AE22:AE23"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="AC22:AC23"/>
+    <mergeCell ref="AB22:AB23"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="Z22:Z23"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="AG20:AG21"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="AE20:AE21"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AC20:AC21"/>
+    <mergeCell ref="AB20:AB21"/>
+    <mergeCell ref="AA20:AA21"/>
+    <mergeCell ref="Z20:Z21"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="AP20:AP21"/>
+    <mergeCell ref="AO20:AO21"/>
+    <mergeCell ref="AN20:AN21"/>
+    <mergeCell ref="AM20:AM21"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="AK20:AK21"/>
+    <mergeCell ref="AJ20:AJ21"/>
+    <mergeCell ref="AI20:AI21"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="AD16:AD17"/>
+    <mergeCell ref="AC16:AC17"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="AA16:AA17"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="AM16:AM17"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="AK16:AK17"/>
+    <mergeCell ref="AJ16:AJ17"/>
+    <mergeCell ref="AI16:AI17"/>
+    <mergeCell ref="AH16:AH17"/>
+    <mergeCell ref="AG16:AG17"/>
+    <mergeCell ref="AF16:AF17"/>
+    <mergeCell ref="AE16:AE17"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="AD14:AD15"/>
+    <mergeCell ref="AE14:AE15"/>
+    <mergeCell ref="AO14:AO15"/>
+    <mergeCell ref="AP14:AP15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="D16:D17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="K16:K17"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="F16:F17"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="AC16:AC17"/>
-    <mergeCell ref="AB16:AB17"/>
-    <mergeCell ref="AA16:AA17"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="Y16:Y17"/>
-    <mergeCell ref="AH16:AH17"/>
-    <mergeCell ref="AG16:AG17"/>
-    <mergeCell ref="AF16:AF17"/>
-    <mergeCell ref="AE16:AE17"/>
-    <mergeCell ref="AD16:AD17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="AP10:AP11"/>
-    <mergeCell ref="AO10:AO11"/>
-    <mergeCell ref="AP12:AP13"/>
-    <mergeCell ref="AO12:AO13"/>
+    <mergeCell ref="E16:E17"/>
     <mergeCell ref="AP16:AP17"/>
     <mergeCell ref="AO16:AO17"/>
     <mergeCell ref="AN16:AN17"/>
-    <mergeCell ref="AM16:AM17"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="AK16:AK17"/>
-    <mergeCell ref="AJ16:AJ17"/>
-    <mergeCell ref="AI16:AI17"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AE10:AE11"/>
-    <mergeCell ref="AD12:AD13"/>
-    <mergeCell ref="AE12:AE13"/>
-    <mergeCell ref="AI12:AI13"/>
-    <mergeCell ref="AJ12:AJ13"/>
-    <mergeCell ref="AK12:AK13"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AN12:AN13"/>
-    <mergeCell ref="AM12:AM13"/>
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="AF12:AF13"/>
-    <mergeCell ref="AG12:AG13"/>
-    <mergeCell ref="AH12:AH13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="Z12:Z13"/>
-    <mergeCell ref="AA12:AA13"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="AC14:AC15"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="AN14:AN15"/>
+    <mergeCell ref="AM14:AM15"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AK14:AK15"/>
+    <mergeCell ref="AJ14:AJ15"/>
+    <mergeCell ref="AI14:AI15"/>
+    <mergeCell ref="AH14:AH15"/>
+    <mergeCell ref="AG14:AG15"/>
+    <mergeCell ref="AF14:AF15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="Y4:Y6"/>
+    <mergeCell ref="Z4:Z6"/>
+    <mergeCell ref="AA4:AA6"/>
+    <mergeCell ref="AB4:AB6"/>
+    <mergeCell ref="AC4:AC6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="K3:U3"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="AG10:AG11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="AF2:AN2"/>
+    <mergeCell ref="AI4:AI6"/>
+    <mergeCell ref="AJ4:AJ6"/>
+    <mergeCell ref="AK4:AK6"/>
+    <mergeCell ref="AL3:AN3"/>
+    <mergeCell ref="AL4:AL6"/>
+    <mergeCell ref="AM4:AM6"/>
+    <mergeCell ref="AN4:AN6"/>
+    <mergeCell ref="AF3:AK3"/>
+    <mergeCell ref="AF4:AF6"/>
+    <mergeCell ref="AG4:AG6"/>
+    <mergeCell ref="AH4:AH6"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="X2:AC2"/>
+    <mergeCell ref="D2:U2"/>
     <mergeCell ref="AM10:AM11"/>
     <mergeCell ref="AN10:AN11"/>
     <mergeCell ref="B12:B13"/>
@@ -13782,65 +14179,65 @@
     <mergeCell ref="AB10:AB11"/>
     <mergeCell ref="AC10:AC11"/>
     <mergeCell ref="AF10:AF11"/>
-    <mergeCell ref="AG10:AG11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="Z10:Z11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="AF2:AN2"/>
-    <mergeCell ref="AI4:AI6"/>
-    <mergeCell ref="AJ4:AJ6"/>
-    <mergeCell ref="AK4:AK6"/>
-    <mergeCell ref="AL3:AN3"/>
-    <mergeCell ref="AL4:AL6"/>
-    <mergeCell ref="AM4:AM6"/>
-    <mergeCell ref="AN4:AN6"/>
-    <mergeCell ref="AF3:AK3"/>
-    <mergeCell ref="AF4:AF6"/>
-    <mergeCell ref="AG4:AG6"/>
-    <mergeCell ref="AH4:AH6"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="X2:AC2"/>
-    <mergeCell ref="D2:U2"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="K3:U3"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="Y4:Y6"/>
-    <mergeCell ref="Z4:Z6"/>
-    <mergeCell ref="AA4:AA6"/>
-    <mergeCell ref="AB4:AB6"/>
-    <mergeCell ref="AC4:AC6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="AN12:AN13"/>
+    <mergeCell ref="AM12:AM13"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="AF12:AF13"/>
+    <mergeCell ref="AG12:AG13"/>
+    <mergeCell ref="AH12:AH13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="Z12:Z13"/>
+    <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="AP10:AP11"/>
+    <mergeCell ref="AO10:AO11"/>
+    <mergeCell ref="AP12:AP13"/>
+    <mergeCell ref="AO12:AO13"/>
+    <mergeCell ref="AP18:AP19"/>
+    <mergeCell ref="AO18:AO19"/>
+    <mergeCell ref="AN18:AN19"/>
+    <mergeCell ref="AM18:AM19"/>
+    <mergeCell ref="AL18:AL19"/>
+    <mergeCell ref="AK18:AK19"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="AI18:AI19"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AE10:AE11"/>
+    <mergeCell ref="AD12:AD13"/>
+    <mergeCell ref="AE12:AE13"/>
+    <mergeCell ref="AI12:AI13"/>
+    <mergeCell ref="AJ12:AJ13"/>
+    <mergeCell ref="AK12:AK13"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AC18:AC19"/>
+    <mergeCell ref="AB18:AB19"/>
+    <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="Y18:Y19"/>
+    <mergeCell ref="AH18:AH19"/>
+    <mergeCell ref="AG18:AG19"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AE18:AE19"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="K18:K19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
